--- a/Grid_5x5/Solutions/Solution_NDP_S034/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
+++ b/Grid_5x5/Solutions/Solution_NDP_S034/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
@@ -2711,7 +2711,7 @@
         <v>201</v>
       </c>
       <c r="C41" s="39">
-        <v>0.24811369394869187</v>
+        <v>0.2481136939486919</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>42</v>
@@ -2732,7 +2732,7 @@
         <v>202</v>
       </c>
       <c r="C42" s="39">
-        <v>0.94147738095238109</v>
+        <v>0.94147738095238043</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>42</v>
@@ -8397,13 +8397,13 @@
         <v>70</v>
       </c>
       <c r="K10" s="72">
-        <v>40.659000000000006</v>
+        <v>40.658999999999999</v>
       </c>
       <c r="L10" s="72">
-        <v>90.436999999999998</v>
+        <v>90.437000000000012</v>
       </c>
       <c r="M10" s="72">
-        <v>74.368000000000009</v>
+        <v>74.367999999999995</v>
       </c>
       <c r="N10" s="72">
         <v>131.096</v>
@@ -8447,7 +8447,7 @@
         <v>112.51499999999999</v>
       </c>
       <c r="M11" s="72">
-        <v>18.581</v>
+        <v>18.581000000000003</v>
       </c>
       <c r="N11" s="72">
         <v>138.88499999999999</v>
@@ -8535,7 +8535,7 @@
         <v>101.339</v>
       </c>
       <c r="M13" s="72">
-        <v>29.934000000000001</v>
+        <v>29.933999999999997</v>
       </c>
       <c r="N13" s="72">
         <v>119.456</v>
@@ -8605,7 +8605,7 @@
         <v>70</v>
       </c>
       <c r="K15" s="72">
-        <v>139.49300000000002</v>
+        <v>139.49299999999999</v>
       </c>
       <c r="L15" s="72">
         <v>0</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="72">
-        <v>139.49300000000002</v>
+        <v>139.49299999999999</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -10572,13 +10572,13 @@
         <v>25.433</v>
       </c>
       <c r="L61" s="72">
-        <v>19.893000000000001</v>
+        <v>19.893000000000008</v>
       </c>
       <c r="M61" s="72">
         <v>2.02</v>
       </c>
       <c r="N61" s="72">
-        <v>45.326000000000001</v>
+        <v>45.326000000000008</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -10616,13 +10616,13 @@
         <v>17.649000000000001</v>
       </c>
       <c r="L62" s="72">
-        <v>34.222000000000001</v>
+        <v>34.222000000000008</v>
       </c>
       <c r="M62" s="72">
         <v>11.103999999999999</v>
       </c>
       <c r="N62" s="72">
-        <v>51.871000000000002</v>
+        <v>51.871000000000009</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -10701,10 +10701,10 @@
         <v>70</v>
       </c>
       <c r="K64" s="72">
-        <v>14.938000000000001</v>
+        <v>14.937999999999999</v>
       </c>
       <c r="L64" s="72">
-        <v>17.683999999999997</v>
+        <v>17.684000000000001</v>
       </c>
       <c r="M64" s="72">
         <v>44.841999999999999</v>
@@ -10795,7 +10795,7 @@
         <v>19.187000000000001</v>
       </c>
       <c r="M66" s="72">
-        <v>9.9019999999999992</v>
+        <v>9.902000000000001</v>
       </c>
       <c r="N66" s="72">
         <v>22.074000000000002</v>
@@ -10839,10 +10839,10 @@
         <v>16.094999999999999</v>
       </c>
       <c r="M67" s="72">
-        <v>5.979000000000001</v>
+        <v>5.9790000000000001</v>
       </c>
       <c r="N67" s="72">
-        <v>20.37</v>
+        <v>20.369999999999997</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -10880,7 +10880,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="72">
-        <v>20.37</v>
+        <v>20.369999999999997</v>
       </c>
       <c r="N68" s="72">
         <v>0</v>
@@ -10909,7 +10909,7 @@
         <v>70</v>
       </c>
       <c r="K69" s="72">
-        <v>20.681999999999999</v>
+        <v>20.681999999999995</v>
       </c>
       <c r="L69" s="72">
         <v>0</v>
@@ -10918,7 +10918,7 @@
         <v>0</v>
       </c>
       <c r="N69" s="72">
-        <v>20.681999999999999</v>
+        <v>20.681999999999995</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -12961,10 +12961,10 @@
         <v>70</v>
       </c>
       <c r="K117" s="72">
-        <v>59.208999999999996</v>
+        <v>59.209000000000003</v>
       </c>
       <c r="L117" s="72">
-        <v>63.952000000000005</v>
+        <v>63.951999999999998</v>
       </c>
       <c r="M117" s="72">
         <v>87</v>
@@ -13011,7 +13011,7 @@
         <v>94.135000000000005</v>
       </c>
       <c r="M118" s="72">
-        <v>29.025999999999996</v>
+        <v>29.026000000000003</v>
       </c>
       <c r="N118" s="72">
         <v>148.78100000000001</v>
@@ -13052,13 +13052,13 @@
         <v>40.727000000000004</v>
       </c>
       <c r="L119" s="72">
-        <v>95.456999999999994</v>
+        <v>95.456999999999965</v>
       </c>
       <c r="M119" s="72">
-        <v>53.324000000000005</v>
+        <v>53.323999999999998</v>
       </c>
       <c r="N119" s="72">
-        <v>136.184</v>
+        <v>136.18399999999997</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
@@ -13096,7 +13096,7 @@
         <v>0</v>
       </c>
       <c r="M120" s="72">
-        <v>136.184</v>
+        <v>136.18399999999997</v>
       </c>
       <c r="N120" s="72">
         <v>0</v>
@@ -13213,10 +13213,10 @@
         <v>70</v>
       </c>
       <c r="K123" s="72">
-        <v>35.236999999999995</v>
+        <v>35.237000000000002</v>
       </c>
       <c r="L123" s="72">
-        <v>86.039000000000001</v>
+        <v>86.038999999999987</v>
       </c>
       <c r="M123" s="72">
         <v>65.635999999999996</v>
@@ -14948,13 +14948,13 @@
         <v>89.477000000000004</v>
       </c>
       <c r="L164" s="72">
-        <v>92.211999999999961</v>
+        <v>92.211999999999989</v>
       </c>
       <c r="M164" s="72">
         <v>21.090000000000003</v>
       </c>
       <c r="N164" s="72">
-        <v>181.68899999999996</v>
+        <v>181.68899999999999</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
@@ -14992,13 +14992,13 @@
         <v>43.225999999999999</v>
       </c>
       <c r="L165" s="72">
-        <v>126.60999999999999</v>
+        <v>126.61000000000001</v>
       </c>
       <c r="M165" s="72">
-        <v>55.079000000000001</v>
+        <v>55.079000000000008</v>
       </c>
       <c r="N165" s="72">
-        <v>169.83599999999998</v>
+        <v>169.83600000000001</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
@@ -15036,13 +15036,13 @@
         <v>27.663</v>
       </c>
       <c r="L166" s="72">
-        <v>47.565999999999988</v>
+        <v>47.566000000000017</v>
       </c>
       <c r="M166" s="72">
-        <v>122.26999999999998</v>
+        <v>122.27000000000001</v>
       </c>
       <c r="N166" s="72">
-        <v>75.228999999999985</v>
+        <v>75.229000000000013</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
@@ -16475,7 +16475,7 @@
         <v>37.126000000000005</v>
       </c>
       <c r="M200" s="72">
-        <v>181.21400000000006</v>
+        <v>181.214</v>
       </c>
       <c r="N200" s="72">
         <v>147.02600000000001</v>
@@ -16516,13 +16516,13 @@
         <v>29.783999999999999</v>
       </c>
       <c r="L201" s="72">
-        <v>91.484000000000037</v>
+        <v>91.484000000000009</v>
       </c>
       <c r="M201" s="72">
-        <v>55.541999999999994</v>
+        <v>55.542000000000002</v>
       </c>
       <c r="N201" s="72">
-        <v>121.26800000000003</v>
+        <v>121.268</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
@@ -16560,7 +16560,7 @@
         <v>0</v>
       </c>
       <c r="M202" s="72">
-        <v>121.26800000000003</v>
+        <v>121.268</v>
       </c>
       <c r="N202" s="72">
         <v>0</v>
@@ -16589,7 +16589,7 @@
         <v>70</v>
       </c>
       <c r="K203" s="72">
-        <v>125.18799999999999</v>
+        <v>125.188</v>
       </c>
       <c r="L203" s="72">
         <v>0</v>
@@ -16598,7 +16598,7 @@
         <v>0</v>
       </c>
       <c r="N203" s="72">
-        <v>125.18799999999999</v>
+        <v>125.188</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
@@ -16633,16 +16633,16 @@
         <v>70</v>
       </c>
       <c r="K204" s="72">
-        <v>57.111000000000004</v>
+        <v>57.11099999999999</v>
       </c>
       <c r="L204" s="72">
-        <v>102.99599999999997</v>
+        <v>102.99600000000004</v>
       </c>
       <c r="M204" s="72">
         <v>22.192</v>
       </c>
       <c r="N204" s="72">
-        <v>160.10699999999997</v>
+        <v>160.10700000000003</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
@@ -17837,7 +17837,7 @@
         <v>70</v>
       </c>
       <c r="K233" s="72">
-        <v>126.66699999999997</v>
+        <v>126.667</v>
       </c>
       <c r="L233" s="72">
         <v>0</v>
@@ -17846,7 +17846,7 @@
         <v>0</v>
       </c>
       <c r="N233" s="72">
-        <v>126.66699999999997</v>
+        <v>126.667</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
@@ -17881,16 +17881,16 @@
         <v>70</v>
       </c>
       <c r="K234" s="72">
-        <v>102.80600000000001</v>
+        <v>102.806</v>
       </c>
       <c r="L234" s="72">
-        <v>98.399000000000001</v>
+        <v>98.398999999999987</v>
       </c>
       <c r="M234" s="72">
         <v>28.268000000000001</v>
       </c>
       <c r="N234" s="72">
-        <v>201.20500000000001</v>
+        <v>201.20499999999998</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.25">
@@ -17931,7 +17931,7 @@
         <v>39.483000000000004</v>
       </c>
       <c r="M235" s="72">
-        <v>161.72199999999998</v>
+        <v>161.72200000000001</v>
       </c>
       <c r="N235" s="72">
         <v>106.04</v>
@@ -17972,13 +17972,13 @@
         <v>10.557</v>
       </c>
       <c r="L236" s="72">
-        <v>67.528999999999996</v>
+        <v>67.529000000000011</v>
       </c>
       <c r="M236" s="72">
-        <v>38.511000000000003</v>
+        <v>38.510999999999996</v>
       </c>
       <c r="N236" s="72">
-        <v>78.085999999999999</v>
+        <v>78.086000000000013</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.25">
@@ -18016,7 +18016,7 @@
         <v>0</v>
       </c>
       <c r="M237" s="72">
-        <v>78.085999999999999</v>
+        <v>78.086000000000013</v>
       </c>
       <c r="N237" s="72">
         <v>0</v>
@@ -19261,10 +19261,10 @@
         <v>70</v>
       </c>
       <c r="K267" s="72">
-        <v>34.212999999999994</v>
+        <v>34.213000000000008</v>
       </c>
       <c r="L267" s="72">
-        <v>97.561000000000007</v>
+        <v>97.560999999999993</v>
       </c>
       <c r="M267" s="72">
         <v>43.677999999999997</v>
@@ -19349,10 +19349,10 @@
         <v>70</v>
       </c>
       <c r="K269" s="72">
-        <v>48.447999999999993</v>
+        <v>48.448</v>
       </c>
       <c r="L269" s="72">
-        <v>61.073999999999998</v>
+        <v>61.073999999999991</v>
       </c>
       <c r="M269" s="72">
         <v>16.372999999999998</v>
@@ -20832,13 +20832,13 @@
         <v>100.316</v>
       </c>
       <c r="L304" s="72">
-        <v>85.000000000000028</v>
+        <v>85</v>
       </c>
       <c r="M304" s="72">
         <v>17.501000000000001</v>
       </c>
       <c r="N304" s="72">
-        <v>185.31600000000003</v>
+        <v>185.316</v>
       </c>
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.25">
@@ -20876,13 +20876,13 @@
         <v>25.79</v>
       </c>
       <c r="L305" s="72">
-        <v>93.740999999999985</v>
+        <v>93.741000000000014</v>
       </c>
       <c r="M305" s="72">
         <v>91.575000000000017</v>
       </c>
       <c r="N305" s="72">
-        <v>119.53099999999999</v>
+        <v>119.53100000000001</v>
       </c>
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.25">
@@ -20920,7 +20920,7 @@
         <v>0</v>
       </c>
       <c r="M306" s="72">
-        <v>119.53099999999999</v>
+        <v>119.53100000000001</v>
       </c>
       <c r="N306" s="72">
         <v>0</v>
@@ -20949,7 +20949,7 @@
         <v>70</v>
       </c>
       <c r="K307" s="72">
-        <v>124.99500000000002</v>
+        <v>124.995</v>
       </c>
       <c r="L307" s="72">
         <v>0</v>
@@ -20958,7 +20958,7 @@
         <v>0</v>
       </c>
       <c r="N307" s="72">
-        <v>124.99500000000002</v>
+        <v>124.995</v>
       </c>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.25">
@@ -20999,7 +20999,7 @@
         <v>103.40899999999999</v>
       </c>
       <c r="M308" s="72">
-        <v>21.586000000000002</v>
+        <v>21.585999999999999</v>
       </c>
       <c r="N308" s="72">
         <v>238.19799999999998</v>
@@ -21040,13 +21040,13 @@
         <v>40.466000000000001</v>
       </c>
       <c r="L309" s="72">
-        <v>140.77200000000002</v>
+        <v>140.77199999999999</v>
       </c>
       <c r="M309" s="72">
-        <v>97.426000000000002</v>
+        <v>97.426000000000016</v>
       </c>
       <c r="N309" s="72">
-        <v>181.23800000000003</v>
+        <v>181.238</v>
       </c>
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.25">
@@ -21084,13 +21084,13 @@
         <v>33.278999999999996</v>
       </c>
       <c r="L310" s="72">
-        <v>53.97999999999999</v>
+        <v>53.980000000000004</v>
       </c>
       <c r="M310" s="72">
         <v>127.25800000000001</v>
       </c>
       <c r="N310" s="72">
-        <v>87.258999999999986</v>
+        <v>87.259</v>
       </c>
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.25">
@@ -22813,7 +22813,7 @@
         <v>70</v>
       </c>
       <c r="K351" s="72">
-        <v>100.69999999999999</v>
+        <v>100.7</v>
       </c>
       <c r="L351" s="72">
         <v>0</v>
@@ -22822,7 +22822,7 @@
         <v>0</v>
       </c>
       <c r="N351" s="72">
-        <v>100.69999999999999</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.25">
@@ -22857,16 +22857,16 @@
         <v>70</v>
       </c>
       <c r="K352" s="72">
-        <v>40.634999999999991</v>
+        <v>40.634999999999998</v>
       </c>
       <c r="L352" s="72">
-        <v>77.469000000000008</v>
+        <v>77.469000000000023</v>
       </c>
       <c r="M352" s="72">
         <v>23.231000000000002</v>
       </c>
       <c r="N352" s="72">
-        <v>118.104</v>
+        <v>118.10400000000001</v>
       </c>
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.25">
@@ -22945,16 +22945,16 @@
         <v>70</v>
       </c>
       <c r="K354" s="72">
-        <v>26.145</v>
+        <v>26.145000000000003</v>
       </c>
       <c r="L354" s="72">
-        <v>97.336000000000013</v>
+        <v>97.335999999999984</v>
       </c>
       <c r="M354" s="72">
-        <v>19.474999999999998</v>
+        <v>19.475000000000001</v>
       </c>
       <c r="N354" s="72">
-        <v>123.48100000000001</v>
+        <v>123.48099999999999</v>
       </c>
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.25">
@@ -22992,13 +22992,13 @@
         <v>31.738</v>
       </c>
       <c r="L355" s="72">
-        <v>52.233000000000004</v>
+        <v>52.232999999999976</v>
       </c>
       <c r="M355" s="72">
-        <v>71.248000000000005</v>
+        <v>71.24799999999999</v>
       </c>
       <c r="N355" s="72">
-        <v>83.971000000000004</v>
+        <v>83.970999999999975</v>
       </c>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.25">
@@ -23036,13 +23036,13 @@
         <v>41.027999999999999</v>
       </c>
       <c r="L356" s="72">
-        <v>59.106000000000002</v>
+        <v>59.106000000000016</v>
       </c>
       <c r="M356" s="72">
-        <v>24.864999999999995</v>
+        <v>24.865000000000002</v>
       </c>
       <c r="N356" s="72">
-        <v>100.134</v>
+        <v>100.13400000000001</v>
       </c>
     </row>
     <row r="357" spans="1:14" x14ac:dyDescent="0.25">
@@ -24953,16 +24953,16 @@
         <v>70</v>
       </c>
       <c r="K401" s="72">
-        <v>37.349999999999994</v>
+        <v>37.35</v>
       </c>
       <c r="L401" s="72">
-        <v>63.215000000000018</v>
+        <v>63.214999999999996</v>
       </c>
       <c r="M401" s="72">
         <v>12.571999999999999</v>
       </c>
       <c r="N401" s="72">
-        <v>100.56500000000001</v>
+        <v>100.565</v>
       </c>
     </row>
     <row r="402" spans="1:14" x14ac:dyDescent="0.25">
@@ -25003,7 +25003,7 @@
         <v>87.408999999999992</v>
       </c>
       <c r="M402" s="72">
-        <v>13.156000000000001</v>
+        <v>13.155999999999999</v>
       </c>
       <c r="N402" s="72">
         <v>139.07599999999999</v>
@@ -25117,7 +25117,7 @@
         <v>70</v>
       </c>
       <c r="K405" s="72">
-        <v>108.42700000000001</v>
+        <v>108.42699999999999</v>
       </c>
       <c r="L405" s="72">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="N405" s="72">
-        <v>108.42700000000001</v>
+        <v>108.42699999999999</v>
       </c>
     </row>
     <row r="406" spans="1:14" x14ac:dyDescent="0.25">
@@ -25164,13 +25164,13 @@
         <v>59.756</v>
       </c>
       <c r="L406" s="72">
-        <v>99.091000000000008</v>
+        <v>99.09099999999998</v>
       </c>
       <c r="M406" s="72">
         <v>9.3360000000000021</v>
       </c>
       <c r="N406" s="72">
-        <v>158.84700000000001</v>
+        <v>158.84699999999998</v>
       </c>
     </row>
     <row r="407" spans="1:14" x14ac:dyDescent="0.25">
@@ -25208,13 +25208,13 @@
         <v>24.944000000000003</v>
       </c>
       <c r="L407" s="72">
-        <v>111.98799999999999</v>
+        <v>111.98800000000001</v>
       </c>
       <c r="M407" s="72">
-        <v>46.858999999999995</v>
+        <v>46.859000000000009</v>
       </c>
       <c r="N407" s="72">
-        <v>136.93199999999999</v>
+        <v>136.93200000000002</v>
       </c>
     </row>
     <row r="408" spans="1:14" x14ac:dyDescent="0.25">
@@ -25249,10 +25249,10 @@
         <v>70</v>
       </c>
       <c r="K408" s="72">
-        <v>35.545999999999999</v>
+        <v>35.546000000000006</v>
       </c>
       <c r="L408" s="72">
-        <v>92.985000000000014</v>
+        <v>92.984999999999999</v>
       </c>
       <c r="M408" s="72">
         <v>43.947000000000003</v>
@@ -25293,7 +25293,7 @@
         <v>70</v>
       </c>
       <c r="K409" s="72">
-        <v>24.644999999999996</v>
+        <v>24.645</v>
       </c>
       <c r="L409" s="72">
         <v>38.131</v>
@@ -25302,7 +25302,7 @@
         <v>90.4</v>
       </c>
       <c r="N409" s="72">
-        <v>62.775999999999996</v>
+        <v>62.776000000000003</v>
       </c>
     </row>
     <row r="410" spans="1:14" x14ac:dyDescent="0.25">
@@ -27468,13 +27468,13 @@
         <v>24.984000000000002</v>
       </c>
       <c r="L460" s="72">
-        <v>102.79999999999998</v>
+        <v>102.80000000000001</v>
       </c>
       <c r="M460" s="72">
         <v>9.1769999999999996</v>
       </c>
       <c r="N460" s="72">
-        <v>127.78399999999999</v>
+        <v>127.78400000000001</v>
       </c>
     </row>
     <row r="461" spans="1:14" x14ac:dyDescent="0.25">
@@ -27512,13 +27512,13 @@
         <v>18.954000000000001</v>
       </c>
       <c r="L461" s="72">
-        <v>99.432999999999993</v>
+        <v>99.433000000000021</v>
       </c>
       <c r="M461" s="72">
-        <v>28.351000000000003</v>
+        <v>28.350999999999999</v>
       </c>
       <c r="N461" s="72">
-        <v>118.387</v>
+        <v>118.38700000000003</v>
       </c>
     </row>
     <row r="462" spans="1:14" x14ac:dyDescent="0.25">
@@ -27597,7 +27597,7 @@
         <v>70</v>
       </c>
       <c r="K463" s="72">
-        <v>19.881999999999998</v>
+        <v>19.882000000000001</v>
       </c>
       <c r="L463" s="72">
         <v>65.813999999999993</v>
@@ -27644,13 +27644,13 @@
         <v>69.308999999999997</v>
       </c>
       <c r="L464" s="72">
-        <v>60.582000000000022</v>
+        <v>60.581999999999994</v>
       </c>
       <c r="M464" s="72">
-        <v>25.114000000000004</v>
+        <v>25.114000000000001</v>
       </c>
       <c r="N464" s="72">
-        <v>129.89100000000002</v>
+        <v>129.89099999999999</v>
       </c>
     </row>
     <row r="465" spans="1:14" x14ac:dyDescent="0.25">
@@ -27685,13 +27685,13 @@
         <v>70</v>
       </c>
       <c r="K465" s="72">
-        <v>50.378999999999998</v>
+        <v>50.379000000000005</v>
       </c>
       <c r="L465" s="72">
-        <v>112.98300000000003</v>
+        <v>112.98300000000002</v>
       </c>
       <c r="M465" s="72">
-        <v>16.908000000000001</v>
+        <v>16.907999999999998</v>
       </c>
       <c r="N465" s="72">
         <v>163.36200000000002</v>
@@ -29608,13 +29608,13 @@
         <v>8.9169999999999998</v>
       </c>
       <c r="L510" s="72">
-        <v>28.313999999999993</v>
+        <v>28.314000000000007</v>
       </c>
       <c r="M510" s="72">
         <v>11.722000000000001</v>
       </c>
       <c r="N510" s="72">
-        <v>37.230999999999995</v>
+        <v>37.231000000000009</v>
       </c>
     </row>
     <row r="511" spans="1:14" x14ac:dyDescent="0.25">
@@ -29655,7 +29655,7 @@
         <v>20.234999999999999</v>
       </c>
       <c r="M511" s="72">
-        <v>16.995999999999999</v>
+        <v>16.996000000000002</v>
       </c>
       <c r="N511" s="72">
         <v>22.552</v>
@@ -29813,7 +29813,7 @@
         <v>70</v>
       </c>
       <c r="K515" s="72">
-        <v>23.979000000000003</v>
+        <v>23.978999999999999</v>
       </c>
       <c r="L515" s="72">
         <v>48.750000000000014</v>
@@ -29857,16 +29857,16 @@
         <v>70</v>
       </c>
       <c r="K516" s="72">
-        <v>27.038</v>
+        <v>27.037999999999997</v>
       </c>
       <c r="L516" s="72">
-        <v>49.027000000000015</v>
+        <v>49.027000000000001</v>
       </c>
       <c r="M516" s="72">
         <v>23.701999999999998</v>
       </c>
       <c r="N516" s="72">
-        <v>76.065000000000012</v>
+        <v>76.064999999999998</v>
       </c>
     </row>
     <row r="517" spans="1:14" x14ac:dyDescent="0.25">
@@ -29907,7 +29907,7 @@
         <v>21.161000000000001</v>
       </c>
       <c r="M517" s="72">
-        <v>54.904000000000011</v>
+        <v>54.904000000000003</v>
       </c>
       <c r="N517" s="72">
         <v>33.363</v>
@@ -31897,7 +31897,7 @@
         <v>70</v>
       </c>
       <c r="K564" s="72">
-        <v>23.908000000000001</v>
+        <v>23.907999999999998</v>
       </c>
       <c r="L564" s="72">
         <v>0</v>
@@ -31906,7 +31906,7 @@
         <v>0</v>
       </c>
       <c r="N564" s="72">
-        <v>23.908000000000001</v>
+        <v>23.907999999999998</v>
       </c>
     </row>
     <row r="565" spans="1:14" x14ac:dyDescent="0.25">
@@ -31944,13 +31944,13 @@
         <v>46.676000000000002</v>
       </c>
       <c r="L565" s="72">
-        <v>21.540000000000006</v>
+        <v>21.539999999999992</v>
       </c>
       <c r="M565" s="72">
         <v>2.3679999999999999</v>
       </c>
       <c r="N565" s="72">
-        <v>68.216000000000008</v>
+        <v>68.215999999999994</v>
       </c>
     </row>
     <row r="566" spans="1:14" x14ac:dyDescent="0.25">
@@ -31991,7 +31991,7 @@
         <v>17.318000000000001</v>
       </c>
       <c r="M566" s="72">
-        <v>50.89800000000001</v>
+        <v>50.897999999999996</v>
       </c>
       <c r="N566" s="72">
         <v>35.039000000000001</v>
@@ -33409,7 +33409,7 @@
         <v>70</v>
       </c>
       <c r="K600" s="72">
-        <v>44.977000000000004</v>
+        <v>44.976999999999997</v>
       </c>
       <c r="L600" s="72">
         <v>0</v>
@@ -33418,7 +33418,7 @@
         <v>0</v>
       </c>
       <c r="N600" s="72">
-        <v>44.977000000000004</v>
+        <v>44.976999999999997</v>
       </c>
     </row>
     <row r="601" spans="1:14" x14ac:dyDescent="0.25">
@@ -33453,16 +33453,16 @@
         <v>70</v>
       </c>
       <c r="K601" s="72">
-        <v>77.315000000000026</v>
+        <v>77.314999999999998</v>
       </c>
       <c r="L601" s="72">
-        <v>32.493999999999986</v>
+        <v>32.494</v>
       </c>
       <c r="M601" s="72">
         <v>12.483000000000001</v>
       </c>
       <c r="N601" s="72">
-        <v>109.80900000000001</v>
+        <v>109.809</v>
       </c>
     </row>
     <row r="602" spans="1:14" x14ac:dyDescent="0.25">
@@ -33588,13 +33588,13 @@
         <v>29.744</v>
       </c>
       <c r="L604" s="72">
-        <v>65.579999999999984</v>
+        <v>65.58</v>
       </c>
       <c r="M604" s="72">
         <v>18.369999999999997</v>
       </c>
       <c r="N604" s="72">
-        <v>95.323999999999984</v>
+        <v>95.323999999999998</v>
       </c>
     </row>
     <row r="605" spans="1:14" x14ac:dyDescent="0.25">
@@ -34807,7 +34807,7 @@
         <v>18.603000000000002</v>
       </c>
       <c r="M633" s="72">
-        <v>67.441999999999993</v>
+        <v>67.442000000000007</v>
       </c>
       <c r="N633" s="72">
         <v>38.599000000000004</v>
@@ -34848,13 +34848,13 @@
         <v>24.375</v>
       </c>
       <c r="L634" s="72">
-        <v>22.434000000000005</v>
+        <v>22.433999999999997</v>
       </c>
       <c r="M634" s="72">
-        <v>16.164999999999999</v>
+        <v>16.165000000000003</v>
       </c>
       <c r="N634" s="72">
-        <v>46.809000000000005</v>
+        <v>46.808999999999997</v>
       </c>
     </row>
     <row r="635" spans="1:14" x14ac:dyDescent="0.25">
@@ -34892,7 +34892,7 @@
         <v>0</v>
       </c>
       <c r="M635" s="72">
-        <v>46.809000000000005</v>
+        <v>46.808999999999997</v>
       </c>
       <c r="N635" s="72">
         <v>0</v>
@@ -36483,7 +36483,7 @@
         <v>42.219000000000008</v>
       </c>
       <c r="M673" s="72">
-        <v>30.119999999999997</v>
+        <v>30.120000000000005</v>
       </c>
       <c r="N673" s="72">
         <v>66.64500000000001</v>
@@ -36568,13 +36568,13 @@
         <v>24.695</v>
       </c>
       <c r="L675" s="72">
-        <v>22.588999999999999</v>
+        <v>22.588999999999992</v>
       </c>
       <c r="M675" s="72">
         <v>15.925000000000001</v>
       </c>
       <c r="N675" s="72">
-        <v>47.283999999999999</v>
+        <v>47.283999999999992</v>
       </c>
     </row>
     <row r="676" spans="1:14" x14ac:dyDescent="0.25">
@@ -36612,13 +36612,13 @@
         <v>7.5469999999999997</v>
       </c>
       <c r="L676" s="72">
-        <v>25.448000000000004</v>
+        <v>25.447999999999997</v>
       </c>
       <c r="M676" s="72">
         <v>21.835999999999999</v>
       </c>
       <c r="N676" s="72">
-        <v>32.995000000000005</v>
+        <v>32.994999999999997</v>
       </c>
     </row>
     <row r="677" spans="1:14" x14ac:dyDescent="0.25">
@@ -36656,7 +36656,7 @@
         <v>0</v>
       </c>
       <c r="M677" s="72">
-        <v>32.995000000000005</v>
+        <v>32.994999999999997</v>
       </c>
       <c r="N677" s="72">
         <v>0</v>
@@ -37989,10 +37989,10 @@
         <v>70</v>
       </c>
       <c r="K709" s="72">
-        <v>37.058000000000007</v>
+        <v>37.057999999999993</v>
       </c>
       <c r="L709" s="72">
-        <v>43.213999999999984</v>
+        <v>43.213999999999999</v>
       </c>
       <c r="M709" s="72">
         <v>17.646999999999998</v>
@@ -38039,7 +38039,7 @@
         <v>49.243000000000002</v>
       </c>
       <c r="M710" s="72">
-        <v>31.028999999999996</v>
+        <v>31.029000000000003</v>
       </c>
       <c r="N710" s="72">
         <v>71.408000000000001</v>
@@ -39428,7 +39428,7 @@
         <v>0</v>
       </c>
       <c r="M743" s="72">
-        <v>47.035000000000004</v>
+        <v>47.034999999999997</v>
       </c>
       <c r="N743" s="72">
         <v>0</v>
@@ -39457,7 +39457,7 @@
         <v>70</v>
       </c>
       <c r="K744" s="72">
-        <v>70.13900000000001</v>
+        <v>70.138999999999996</v>
       </c>
       <c r="L744" s="72">
         <v>0</v>
@@ -39466,7 +39466,7 @@
         <v>0</v>
       </c>
       <c r="N744" s="72">
-        <v>70.13900000000001</v>
+        <v>70.138999999999996</v>
       </c>
     </row>
     <row r="745" spans="1:14" x14ac:dyDescent="0.25">
@@ -39501,13 +39501,13 @@
         <v>70</v>
       </c>
       <c r="K745" s="72">
-        <v>18.965</v>
+        <v>18.965000000000003</v>
       </c>
       <c r="L745" s="72">
         <v>44.692999999999998</v>
       </c>
       <c r="M745" s="72">
-        <v>25.445999999999998</v>
+        <v>25.446000000000002</v>
       </c>
       <c r="N745" s="72">
         <v>63.658000000000001</v>
@@ -39545,7 +39545,7 @@
         <v>70</v>
       </c>
       <c r="K746" s="72">
-        <v>18.812999999999995</v>
+        <v>18.813000000000002</v>
       </c>
       <c r="L746" s="72">
         <v>18.298000000000002</v>
@@ -39554,7 +39554,7 @@
         <v>45.36</v>
       </c>
       <c r="N746" s="72">
-        <v>37.110999999999997</v>
+        <v>37.111000000000004</v>
       </c>
     </row>
     <row r="747" spans="1:14" x14ac:dyDescent="0.25">
@@ -39636,13 +39636,13 @@
         <v>7.4129999999999994</v>
       </c>
       <c r="L748" s="72">
-        <v>31.580000000000002</v>
+        <v>31.579999999999995</v>
       </c>
       <c r="M748" s="72">
         <v>11.492000000000001</v>
       </c>
       <c r="N748" s="72">
-        <v>38.993000000000002</v>
+        <v>38.992999999999995</v>
       </c>
     </row>
     <row r="749" spans="1:14" x14ac:dyDescent="0.25">
@@ -40805,16 +40805,16 @@
         <v>70</v>
       </c>
       <c r="K776" s="72">
-        <v>35.725000000000009</v>
+        <v>35.725000000000001</v>
       </c>
       <c r="L776" s="72">
-        <v>59.347999999999985</v>
+        <v>59.348000000000006</v>
       </c>
       <c r="M776" s="72">
         <v>69.736999999999995</v>
       </c>
       <c r="N776" s="72">
-        <v>95.072999999999993</v>
+        <v>95.073000000000008</v>
       </c>
     </row>
     <row r="777" spans="1:14" x14ac:dyDescent="0.25">
@@ -40896,13 +40896,13 @@
         <v>4.1050000000000004</v>
       </c>
       <c r="L778" s="72">
-        <v>16.703000000000003</v>
+        <v>16.702999999999999</v>
       </c>
       <c r="M778" s="72">
         <v>46.930999999999997</v>
       </c>
       <c r="N778" s="72">
-        <v>20.808000000000003</v>
+        <v>20.808</v>
       </c>
     </row>
     <row r="779" spans="1:14" x14ac:dyDescent="0.25">
@@ -40940,7 +40940,7 @@
         <v>0</v>
       </c>
       <c r="M779" s="72">
-        <v>20.808000000000003</v>
+        <v>20.808</v>
       </c>
       <c r="N779" s="72">
         <v>0</v>
@@ -41016,13 +41016,13 @@
         <v>67.968999999999994</v>
       </c>
       <c r="L781" s="72">
-        <v>46.567000000000007</v>
+        <v>46.567000000000021</v>
       </c>
       <c r="M781" s="72">
         <v>42.163000000000004</v>
       </c>
       <c r="N781" s="72">
-        <v>114.536</v>
+        <v>114.53600000000002</v>
       </c>
     </row>
     <row r="782" spans="1:14" x14ac:dyDescent="0.25">
@@ -42531,7 +42531,7 @@
         <v>44.643000000000001</v>
       </c>
       <c r="M817" s="72">
-        <v>15.954999999999998</v>
+        <v>15.955</v>
       </c>
       <c r="N817" s="72">
         <v>117.125</v>
@@ -42569,7 +42569,7 @@
         <v>70</v>
       </c>
       <c r="K818" s="72">
-        <v>26.518999999999998</v>
+        <v>26.519000000000005</v>
       </c>
       <c r="L818" s="72">
         <v>67.858000000000004</v>
@@ -42578,7 +42578,7 @@
         <v>49.266999999999996</v>
       </c>
       <c r="N818" s="72">
-        <v>94.376999999999995</v>
+        <v>94.37700000000001</v>
       </c>
     </row>
     <row r="819" spans="1:14" x14ac:dyDescent="0.25">
@@ -42619,7 +42619,7 @@
         <v>51.878000000000007</v>
       </c>
       <c r="M819" s="72">
-        <v>42.498999999999995</v>
+        <v>42.499000000000002</v>
       </c>
       <c r="N819" s="72">
         <v>69.62</v>
@@ -43964,7 +43964,7 @@
         <v>0</v>
       </c>
       <c r="M851" s="72">
-        <v>21.720999999999997</v>
+        <v>21.721</v>
       </c>
       <c r="N851" s="72">
         <v>0</v>
@@ -43993,7 +43993,7 @@
         <v>70</v>
       </c>
       <c r="K852" s="72">
-        <v>74.786999999999978</v>
+        <v>74.787000000000006</v>
       </c>
       <c r="L852" s="72">
         <v>0</v>
@@ -44002,7 +44002,7 @@
         <v>0</v>
       </c>
       <c r="N852" s="72">
-        <v>74.786999999999978</v>
+        <v>74.787000000000006</v>
       </c>
     </row>
     <row r="853" spans="1:14" x14ac:dyDescent="0.25">
@@ -44037,16 +44037,16 @@
         <v>70</v>
       </c>
       <c r="K853" s="72">
-        <v>42.803000000000004</v>
+        <v>42.802999999999997</v>
       </c>
       <c r="L853" s="72">
-        <v>49.303999999999981</v>
+        <v>49.304000000000002</v>
       </c>
       <c r="M853" s="72">
         <v>25.483000000000001</v>
       </c>
       <c r="N853" s="72">
-        <v>92.106999999999985</v>
+        <v>92.106999999999999</v>
       </c>
     </row>
     <row r="854" spans="1:14" x14ac:dyDescent="0.25">
@@ -44081,10 +44081,10 @@
         <v>70</v>
       </c>
       <c r="K854" s="72">
-        <v>32.890999999999998</v>
+        <v>32.891000000000005</v>
       </c>
       <c r="L854" s="72">
-        <v>18.033999999999999</v>
+        <v>18.033999999999992</v>
       </c>
       <c r="M854" s="72">
         <v>74.073000000000008</v>
@@ -44128,13 +44128,13 @@
         <v>16.679000000000002</v>
       </c>
       <c r="L855" s="72">
-        <v>28.697999999999993</v>
+        <v>28.698</v>
       </c>
       <c r="M855" s="72">
-        <v>22.226999999999997</v>
+        <v>22.227</v>
       </c>
       <c r="N855" s="72">
-        <v>45.376999999999995</v>
+        <v>45.377000000000002</v>
       </c>
     </row>
     <row r="856" spans="1:14" x14ac:dyDescent="0.25">
@@ -45505,7 +45505,7 @@
         <v>70</v>
       </c>
       <c r="K888" s="72">
-        <v>24.84</v>
+        <v>24.840000000000003</v>
       </c>
       <c r="L888" s="72">
         <v>0</v>
@@ -45514,7 +45514,7 @@
         <v>0</v>
       </c>
       <c r="N888" s="72">
-        <v>24.84</v>
+        <v>24.840000000000003</v>
       </c>
     </row>
     <row r="889" spans="1:14" x14ac:dyDescent="0.25">
@@ -45599,7 +45599,7 @@
         <v>54.2</v>
       </c>
       <c r="M890" s="72">
-        <v>24.833999999999996</v>
+        <v>24.834000000000003</v>
       </c>
       <c r="N890" s="72">
         <v>94.858000000000004</v>
@@ -45687,7 +45687,7 @@
         <v>21.978999999999999</v>
       </c>
       <c r="M892" s="72">
-        <v>23.958000000000002</v>
+        <v>23.957999999999998</v>
       </c>
       <c r="N892" s="72">
         <v>41.847999999999999</v>
@@ -47017,7 +47017,7 @@
         <v>70</v>
       </c>
       <c r="K924" s="72">
-        <v>84.062000000000012</v>
+        <v>84.061999999999998</v>
       </c>
       <c r="L924" s="72">
         <v>0</v>
@@ -47026,7 +47026,7 @@
         <v>0</v>
       </c>
       <c r="N924" s="72">
-        <v>84.062000000000012</v>
+        <v>84.061999999999998</v>
       </c>
     </row>
     <row r="925" spans="1:14" x14ac:dyDescent="0.25">
@@ -47064,13 +47064,13 @@
         <v>21.097000000000001</v>
       </c>
       <c r="L925" s="72">
-        <v>58.643999999999998</v>
+        <v>58.644000000000013</v>
       </c>
       <c r="M925" s="72">
-        <v>25.418000000000003</v>
+        <v>25.417999999999999</v>
       </c>
       <c r="N925" s="72">
-        <v>79.741</v>
+        <v>79.741000000000014</v>
       </c>
     </row>
     <row r="926" spans="1:14" x14ac:dyDescent="0.25">
@@ -47111,7 +47111,7 @@
         <v>18.03</v>
       </c>
       <c r="M926" s="72">
-        <v>61.711000000000006</v>
+        <v>61.710999999999999</v>
       </c>
       <c r="N926" s="72">
         <v>28.417999999999999</v>
@@ -47193,10 +47193,10 @@
         <v>70</v>
       </c>
       <c r="K928" s="72">
-        <v>21.957999999999998</v>
+        <v>21.958000000000002</v>
       </c>
       <c r="L928" s="72">
-        <v>11.947000000000003</v>
+        <v>11.946999999999999</v>
       </c>
       <c r="M928" s="72">
         <v>22.735999999999997</v>
@@ -48415,7 +48415,7 @@
         <v>25.150999999999996</v>
       </c>
       <c r="M957" s="72">
-        <v>44.308</v>
+        <v>44.308000000000007</v>
       </c>
       <c r="N957" s="72">
         <v>40.068999999999996</v>
@@ -48453,7 +48453,7 @@
         <v>70</v>
       </c>
       <c r="K958" s="72">
-        <v>11.704000000000001</v>
+        <v>11.703999999999999</v>
       </c>
       <c r="L958" s="72">
         <v>25.088999999999999</v>
@@ -48529,7 +48529,7 @@
         <v>70</v>
       </c>
       <c r="K960" s="72">
-        <v>52.115000000000009</v>
+        <v>52.115000000000002</v>
       </c>
       <c r="L960" s="72">
         <v>0</v>
@@ -48538,7 +48538,7 @@
         <v>0</v>
       </c>
       <c r="N960" s="72">
-        <v>52.115000000000009</v>
+        <v>52.115000000000002</v>
       </c>
     </row>
     <row r="961" spans="1:14" x14ac:dyDescent="0.25">
@@ -48579,7 +48579,7 @@
         <v>37.236999999999995</v>
       </c>
       <c r="M961" s="72">
-        <v>14.878</v>
+        <v>14.877999999999998</v>
       </c>
       <c r="N961" s="72">
         <v>71.602999999999994</v>
@@ -50091,7 +50091,7 @@
         <v>12.372999999999999</v>
       </c>
       <c r="M997" s="72">
-        <v>47.064000000000007</v>
+        <v>47.064</v>
       </c>
       <c r="N997" s="72">
         <v>27.509</v>
@@ -50179,7 +50179,7 @@
         <v>3.7190000000000012</v>
       </c>
       <c r="M999" s="72">
-        <v>25.323999999999998</v>
+        <v>25.324000000000002</v>
       </c>
       <c r="N999" s="72">
         <v>9.9430000000000014</v>
@@ -51600,13 +51600,13 @@
         <v>20.536000000000001</v>
       </c>
       <c r="L1033" s="72">
-        <v>9.5359999999999978</v>
+        <v>9.5360000000000014</v>
       </c>
       <c r="M1033" s="72">
         <v>13.155999999999999</v>
       </c>
       <c r="N1033" s="72">
-        <v>30.071999999999999</v>
+        <v>30.072000000000003</v>
       </c>
     </row>
     <row r="1034" spans="1:14" x14ac:dyDescent="0.25">
@@ -51641,13 +51641,13 @@
         <v>70</v>
       </c>
       <c r="K1034" s="72">
-        <v>51.302</v>
+        <v>51.301999999999992</v>
       </c>
       <c r="L1034" s="72">
-        <v>10.553000000000004</v>
+        <v>10.553000000000011</v>
       </c>
       <c r="M1034" s="72">
-        <v>19.518999999999998</v>
+        <v>19.519000000000002</v>
       </c>
       <c r="N1034" s="72">
         <v>61.855000000000004</v>
@@ -51691,7 +51691,7 @@
         <v>33.804000000000002</v>
       </c>
       <c r="M1035" s="72">
-        <v>28.051000000000002</v>
+        <v>28.050999999999998</v>
       </c>
       <c r="N1035" s="72">
         <v>47.347999999999999</v>
@@ -53109,16 +53109,16 @@
         <v>70</v>
       </c>
       <c r="K1069" s="72">
-        <v>26.108000000000001</v>
+        <v>26.107999999999997</v>
       </c>
       <c r="L1069" s="72">
-        <v>9.0870000000000068</v>
+        <v>9.0869999999999962</v>
       </c>
       <c r="M1069" s="72">
         <v>32.645000000000003</v>
       </c>
       <c r="N1069" s="72">
-        <v>35.195000000000007</v>
+        <v>35.194999999999993</v>
       </c>
     </row>
     <row r="1070" spans="1:14" x14ac:dyDescent="0.25">
@@ -53156,13 +53156,13 @@
         <v>5.8710000000000004</v>
       </c>
       <c r="L1070" s="72">
-        <v>22.845999999999997</v>
+        <v>22.846000000000004</v>
       </c>
       <c r="M1070" s="72">
         <v>12.349</v>
       </c>
       <c r="N1070" s="72">
-        <v>28.716999999999999</v>
+        <v>28.717000000000002</v>
       </c>
     </row>
     <row r="1071" spans="1:14" x14ac:dyDescent="0.25">
@@ -53200,13 +53200,13 @@
         <v>2.5500000000000003</v>
       </c>
       <c r="L1071" s="72">
-        <v>16.674000000000003</v>
+        <v>16.673999999999999</v>
       </c>
       <c r="M1071" s="72">
         <v>12.042999999999999</v>
       </c>
       <c r="N1071" s="72">
-        <v>19.224000000000004</v>
+        <v>19.224</v>
       </c>
     </row>
     <row r="1072" spans="1:14" x14ac:dyDescent="0.25">
@@ -54548,7 +54548,7 @@
         <v>0</v>
       </c>
       <c r="M1103" s="72">
-        <v>82.309999999999988</v>
+        <v>82.31</v>
       </c>
       <c r="N1103" s="72">
         <v>0</v>
@@ -54577,7 +54577,7 @@
         <v>70</v>
       </c>
       <c r="K1104" s="72">
-        <v>115.818</v>
+        <v>115.81799999999998</v>
       </c>
       <c r="L1104" s="72">
         <v>0</v>
@@ -54586,7 +54586,7 @@
         <v>0</v>
       </c>
       <c r="N1104" s="72">
-        <v>115.818</v>
+        <v>115.81799999999998</v>
       </c>
     </row>
     <row r="1105" spans="1:14" x14ac:dyDescent="0.25">
@@ -54621,16 +54621,16 @@
         <v>70</v>
       </c>
       <c r="K1105" s="72">
-        <v>14.083</v>
+        <v>14.082999999999998</v>
       </c>
       <c r="L1105" s="72">
-        <v>99.174000000000007</v>
+        <v>99.173999999999992</v>
       </c>
       <c r="M1105" s="72">
         <v>16.644000000000002</v>
       </c>
       <c r="N1105" s="72">
-        <v>113.25700000000001</v>
+        <v>113.25699999999999</v>
       </c>
     </row>
     <row r="1106" spans="1:14" x14ac:dyDescent="0.25">
@@ -56089,7 +56089,7 @@
         <v>70</v>
       </c>
       <c r="K1140" s="72">
-        <v>66.2</v>
+        <v>66.199999999999989</v>
       </c>
       <c r="L1140" s="72">
         <v>0</v>
@@ -56098,7 +56098,7 @@
         <v>0</v>
       </c>
       <c r="N1140" s="72">
-        <v>66.2</v>
+        <v>66.199999999999989</v>
       </c>
     </row>
     <row r="1141" spans="1:14" x14ac:dyDescent="0.25">
@@ -56139,7 +56139,7 @@
         <v>8.8119999999999976</v>
       </c>
       <c r="M1141" s="72">
-        <v>57.388000000000005</v>
+        <v>57.387999999999998</v>
       </c>
       <c r="N1141" s="72">
         <v>38.287999999999997</v>
@@ -57601,7 +57601,7 @@
         <v>70</v>
       </c>
       <c r="K1176" s="72">
-        <v>147.57599999999996</v>
+        <v>147.57599999999999</v>
       </c>
       <c r="L1176" s="72">
         <v>0</v>
@@ -57610,7 +57610,7 @@
         <v>0</v>
       </c>
       <c r="N1176" s="72">
-        <v>147.57599999999996</v>
+        <v>147.57599999999999</v>
       </c>
     </row>
     <row r="1177" spans="1:14" x14ac:dyDescent="0.25">
@@ -57648,13 +57648,13 @@
         <v>12.965</v>
       </c>
       <c r="L1177" s="72">
-        <v>98.652000000000015</v>
+        <v>98.651999999999987</v>
       </c>
       <c r="M1177" s="72">
-        <v>48.923999999999999</v>
+        <v>48.923999999999992</v>
       </c>
       <c r="N1177" s="72">
-        <v>111.61700000000002</v>
+        <v>111.61699999999999</v>
       </c>
     </row>
     <row r="1178" spans="1:14" x14ac:dyDescent="0.25">
@@ -57777,16 +57777,16 @@
         <v>70</v>
       </c>
       <c r="K1180" s="72">
-        <v>22.179000000000006</v>
+        <v>22.179000000000002</v>
       </c>
       <c r="L1180" s="72">
-        <v>30.065000000000001</v>
+        <v>30.064999999999998</v>
       </c>
       <c r="M1180" s="72">
-        <v>96.557000000000016</v>
+        <v>96.556999999999988</v>
       </c>
       <c r="N1180" s="72">
-        <v>52.244000000000007</v>
+        <v>52.244</v>
       </c>
     </row>
     <row r="1181" spans="1:14" x14ac:dyDescent="0.25">
@@ -57824,7 +57824,7 @@
         <v>0</v>
       </c>
       <c r="M1181" s="72">
-        <v>52.244000000000007</v>
+        <v>52.244</v>
       </c>
       <c r="N1181" s="72">
         <v>0</v>
@@ -61612,13 +61612,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="72">
-        <v>258.13925000000006</v>
+        <v>258.13925</v>
       </c>
       <c r="H6" s="72">
         <v>280</v>
       </c>
       <c r="I6" s="76">
-        <v>0.9219258928571431</v>
+        <v>0.92192589285714288</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -61728,13 +61728,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="72">
-        <v>249.83900000000008</v>
+        <v>249.83899999999997</v>
       </c>
       <c r="H10" s="72">
         <v>350</v>
       </c>
       <c r="I10" s="76">
-        <v>0.71382571428571451</v>
+        <v>0.71382571428571417</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -61786,13 +61786,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="72">
-        <v>57.217250000000014</v>
+        <v>57.21725</v>
       </c>
       <c r="H12" s="72">
         <v>210</v>
       </c>
       <c r="I12" s="76">
-        <v>0.27246309523809531</v>
+        <v>0.27246309523809525</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -61815,13 +61815,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="72">
-        <v>22.150749999999999</v>
+        <v>22.150749999999995</v>
       </c>
       <c r="H13" s="72">
         <v>210</v>
       </c>
       <c r="I13" s="76">
-        <v>0.1054797619047619</v>
+        <v>0.10547976190476188</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -61844,13 +61844,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="72">
-        <v>71.600999999999985</v>
+        <v>71.600999999999999</v>
       </c>
       <c r="H14" s="72">
         <v>140</v>
       </c>
       <c r="I14" s="76">
-        <v>0.51143571428571422</v>
+        <v>0.51143571428571433</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -61873,13 +61873,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="72">
-        <v>85.453500000000034</v>
+        <v>85.45350000000002</v>
       </c>
       <c r="H15" s="72">
         <v>140</v>
       </c>
       <c r="I15" s="76">
-        <v>0.6103821428571431</v>
+        <v>0.61038214285714298</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -61931,13 +61931,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="72">
-        <v>121.68999999999996</v>
+        <v>121.68999999999998</v>
       </c>
       <c r="H17" s="72">
         <v>420</v>
       </c>
       <c r="I17" s="76">
-        <v>0.28973809523809513</v>
+        <v>0.28973809523809518</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -61960,13 +61960,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="72">
-        <v>40.9</v>
+        <v>40.900000000000006</v>
       </c>
       <c r="H18" s="72">
         <v>70</v>
       </c>
       <c r="I18" s="76">
-        <v>0.5842857142857143</v>
+        <v>0.58428571428571441</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -62134,13 +62134,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="72">
-        <v>61.135750000000002</v>
+        <v>61.135750000000016</v>
       </c>
       <c r="H24" s="72">
         <v>70</v>
       </c>
       <c r="I24" s="76">
-        <v>0.87336785714285714</v>
+        <v>0.87336785714285736</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -62163,13 +62163,13 @@
         <v>0</v>
       </c>
       <c r="G25" s="72">
-        <v>43.853500000000004</v>
+        <v>43.853500000000018</v>
       </c>
       <c r="H25" s="72">
         <v>70</v>
       </c>
       <c r="I25" s="76">
-        <v>0.62647857142857144</v>
+        <v>0.62647857142857166</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -62279,13 +62279,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="72">
-        <v>93.996750000000006</v>
+        <v>93.996750000000034</v>
       </c>
       <c r="H29" s="72">
         <v>210</v>
       </c>
       <c r="I29" s="76">
-        <v>0.44760357142857143</v>
+        <v>0.4476035714285716</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -62308,13 +62308,13 @@
         <v>0</v>
       </c>
       <c r="G30" s="72">
-        <v>57.182000000000016</v>
+        <v>57.182000000000009</v>
       </c>
       <c r="H30" s="72">
         <v>70</v>
       </c>
       <c r="I30" s="76">
-        <v>0.81688571428571455</v>
+        <v>0.81688571428571444</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -62366,13 +62366,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="72">
-        <v>117.69100000000002</v>
+        <v>117.69099999999999</v>
       </c>
       <c r="H32" s="72">
         <v>210</v>
       </c>
       <c r="I32" s="76">
-        <v>0.56043333333333345</v>
+        <v>0.56043333333333323</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -62424,13 +62424,13 @@
         <v>0</v>
       </c>
       <c r="G34" s="72">
-        <v>617.65949999999975</v>
+        <v>617.65949999999964</v>
       </c>
       <c r="H34" s="72">
         <v>840</v>
       </c>
       <c r="I34" s="76">
-        <v>0.73530892857142827</v>
+        <v>0.73530892857142816</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -62453,13 +62453,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="72">
-        <v>267.49349999999993</v>
+        <v>267.49350000000004</v>
       </c>
       <c r="H35" s="72">
         <v>840</v>
       </c>
       <c r="I35" s="76">
-        <v>0.31844464285714275</v>
+        <v>0.31844464285714291</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -62511,13 +62511,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="72">
-        <v>59.180749999999996</v>
+        <v>59.180750000000003</v>
       </c>
       <c r="H37" s="72">
         <v>70</v>
       </c>
       <c r="I37" s="76">
-        <v>0.84543928571428562</v>
+        <v>0.84543928571428573</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -62540,13 +62540,13 @@
         <v>0</v>
       </c>
       <c r="G38" s="72">
-        <v>54.979749999999996</v>
+        <v>54.979750000000003</v>
       </c>
       <c r="H38" s="72">
         <v>70</v>
       </c>
       <c r="I38" s="76">
-        <v>0.78542499999999993</v>
+        <v>0.78542500000000004</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -62656,13 +62656,13 @@
         <v>0</v>
       </c>
       <c r="G42" s="72">
-        <v>64.462500000000034</v>
+        <v>64.46250000000002</v>
       </c>
       <c r="H42" s="72">
         <v>70</v>
       </c>
       <c r="I42" s="76">
-        <v>0.92089285714285762</v>
+        <v>0.9208928571428574</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -62685,13 +62685,13 @@
         <v>0</v>
       </c>
       <c r="G43" s="72">
-        <v>38.313250000000004</v>
+        <v>38.313249999999996</v>
       </c>
       <c r="H43" s="72">
         <v>70</v>
       </c>
       <c r="I43" s="76">
-        <v>0.54733214285714293</v>
+        <v>0.54733214285714282</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -62772,13 +62772,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="72">
-        <v>115.89300000000001</v>
+        <v>115.89299999999994</v>
       </c>
       <c r="H46" s="72">
         <v>140</v>
       </c>
       <c r="I46" s="76">
-        <v>0.82780714285714296</v>
+        <v>0.82780714285714241</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -62801,13 +62801,13 @@
         <v>0</v>
       </c>
       <c r="G47" s="72">
-        <v>78.834999999999994</v>
+        <v>78.835000000000036</v>
       </c>
       <c r="H47" s="72">
         <v>140</v>
       </c>
       <c r="I47" s="76">
-        <v>0.56310714285714281</v>
+        <v>0.56310714285714314</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -62888,13 +62888,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="72">
-        <v>97.347250000000003</v>
+        <v>97.347250000000031</v>
       </c>
       <c r="H50" s="72">
         <v>210</v>
       </c>
       <c r="I50" s="76">
-        <v>0.46355833333333335</v>
+        <v>0.46355833333333346</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -62917,13 +62917,13 @@
         <v>0</v>
       </c>
       <c r="G51" s="72">
-        <v>151.36449999999999</v>
+        <v>151.36450000000002</v>
       </c>
       <c r="H51" s="72">
         <v>210</v>
       </c>
       <c r="I51" s="76">
-        <v>0.72078333333333333</v>
+        <v>0.72078333333333344</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -62946,13 +62946,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="72">
-        <v>309.79249999999985</v>
+        <v>309.79249999999979</v>
       </c>
       <c r="H52" s="72">
         <v>630</v>
       </c>
       <c r="I52" s="76">
-        <v>0.49173412698412672</v>
+        <v>0.49173412698412666</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -62975,7 +62975,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="72">
-        <v>474.95174999999995</v>
+        <v>474.95175</v>
       </c>
       <c r="H53" s="72">
         <v>630</v>
@@ -63004,13 +63004,13 @@
         <v>0</v>
       </c>
       <c r="G54" s="72">
-        <v>43.967250000000035</v>
+        <v>43.967250000000007</v>
       </c>
       <c r="H54" s="72">
         <v>70</v>
       </c>
       <c r="I54" s="76">
-        <v>0.62810357142857198</v>
+        <v>0.62810357142857154</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -63033,13 +63033,13 @@
         <v>0</v>
       </c>
       <c r="G55" s="72">
-        <v>63.393750000000011</v>
+        <v>63.393750000000004</v>
       </c>
       <c r="H55" s="72">
         <v>70</v>
       </c>
       <c r="I55" s="76">
-        <v>0.90562500000000012</v>
+        <v>0.90562500000000001</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -63091,13 +63091,13 @@
         <v>0</v>
       </c>
       <c r="G57" s="72">
-        <v>17.523249999999997</v>
+        <v>17.523250000000001</v>
       </c>
       <c r="H57" s="72">
         <v>70</v>
       </c>
       <c r="I57" s="76">
-        <v>0.25033214285714284</v>
+        <v>0.25033214285714289</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -63178,13 +63178,13 @@
         <v>0</v>
       </c>
       <c r="G60" s="72">
-        <v>62.990999999999993</v>
+        <v>62.991</v>
       </c>
       <c r="H60" s="72">
         <v>70</v>
       </c>
       <c r="I60" s="76">
-        <v>0.89987142857142843</v>
+        <v>0.89987142857142854</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -63294,13 +63294,13 @@
         <v>0</v>
       </c>
       <c r="G64" s="72">
-        <v>197.71025000000003</v>
+        <v>197.71024999999989</v>
       </c>
       <c r="H64" s="72">
         <v>210</v>
       </c>
       <c r="I64" s="76">
-        <v>0.94147738095238109</v>
+        <v>0.94147738095238043</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -63323,13 +63323,13 @@
         <v>0</v>
       </c>
       <c r="G65" s="72">
-        <v>128.63374999999991</v>
+        <v>128.63374999999999</v>
       </c>
       <c r="H65" s="72">
         <v>210</v>
       </c>
       <c r="I65" s="76">
-        <v>0.61254166666666621</v>
+        <v>0.61254166666666665</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -63439,13 +63439,13 @@
         <v>0</v>
       </c>
       <c r="G69" s="72">
-        <v>174.39224999999999</v>
+        <v>174.39224999999993</v>
       </c>
       <c r="H69" s="72">
         <v>210</v>
       </c>
       <c r="I69" s="76">
-        <v>0.83043928571428571</v>
+        <v>0.83043928571428538</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -63497,7 +63497,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="72">
-        <v>189.97324999999998</v>
+        <v>189.97324999999995</v>
       </c>
       <c r="H71" s="72">
         <v>350</v>
@@ -63526,13 +63526,13 @@
         <v>0</v>
       </c>
       <c r="G72" s="72">
-        <v>45.395250000000004</v>
+        <v>45.395250000000011</v>
       </c>
       <c r="H72" s="72">
         <v>70</v>
       </c>
       <c r="I72" s="76">
-        <v>0.64850357142857151</v>
+        <v>0.64850357142857162</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -63555,13 +63555,13 @@
         <v>0</v>
       </c>
       <c r="G73" s="72">
-        <v>56.677999999999997</v>
+        <v>56.678000000000011</v>
       </c>
       <c r="H73" s="72">
         <v>70</v>
       </c>
       <c r="I73" s="76">
-        <v>0.80968571428571423</v>
+        <v>0.80968571428571445</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -63584,13 +63584,13 @@
         <v>0</v>
       </c>
       <c r="G74" s="72">
-        <v>42.745249999999999</v>
+        <v>42.745250000000006</v>
       </c>
       <c r="H74" s="72">
         <v>70</v>
       </c>
       <c r="I74" s="76">
-        <v>0.61064642857142859</v>
+        <v>0.6106464285714287</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -63613,13 +63613,13 @@
         <v>0</v>
       </c>
       <c r="G75" s="72">
-        <v>33.327249999999999</v>
+        <v>33.327250000000006</v>
       </c>
       <c r="H75" s="72">
         <v>70</v>
       </c>
       <c r="I75" s="76">
-        <v>0.4761035714285714</v>
+        <v>0.47610357142857151</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -63700,13 +63700,13 @@
         <v>0</v>
       </c>
       <c r="G78" s="72">
-        <v>54.477750000000007</v>
+        <v>54.47775</v>
       </c>
       <c r="H78" s="72">
         <v>70</v>
       </c>
       <c r="I78" s="76">
-        <v>0.77825357142857154</v>
+        <v>0.77825357142857143</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -63729,13 +63729,13 @@
         <v>0</v>
       </c>
       <c r="G79" s="72">
-        <v>35.889999999999993</v>
+        <v>35.89</v>
       </c>
       <c r="H79" s="72">
         <v>70</v>
       </c>
       <c r="I79" s="76">
-        <v>0.51271428571428557</v>
+        <v>0.51271428571428568</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -63758,13 +63758,13 @@
         <v>0</v>
       </c>
       <c r="G80" s="72">
-        <v>110.01474999999999</v>
+        <v>110.01475000000001</v>
       </c>
       <c r="H80" s="72">
         <v>140</v>
       </c>
       <c r="I80" s="76">
-        <v>0.78581964285714279</v>
+        <v>0.7858196428571429</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -63816,13 +63816,13 @@
         <v>0</v>
       </c>
       <c r="G82" s="72">
-        <v>159.66875000000002</v>
+        <v>159.66875000000005</v>
       </c>
       <c r="H82" s="72">
         <v>210</v>
       </c>
       <c r="I82" s="76">
-        <v>0.76032738095238106</v>
+        <v>0.76032738095238117</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -63845,13 +63845,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="72">
-        <v>63.156249999999993</v>
+        <v>63.156249999999986</v>
       </c>
       <c r="H83" s="72">
         <v>210</v>
       </c>
       <c r="I83" s="76">
-        <v>0.30074404761904761</v>
+        <v>0.30074404761904755</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -63903,13 +63903,13 @@
         <v>0</v>
       </c>
       <c r="G85" s="72">
-        <v>40.552000000000014</v>
+        <v>40.552000000000007</v>
       </c>
       <c r="H85" s="72">
         <v>210</v>
       </c>
       <c r="I85" s="76">
-        <v>0.19310476190476197</v>
+        <v>0.19310476190476195</v>
       </c>
     </row>
   </sheetData>

--- a/Grid_5x5/Solutions/Solution_NDP_S034/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
+++ b/Grid_5x5/Solutions/Solution_NDP_S034/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
@@ -2711,7 +2711,7 @@
         <v>201</v>
       </c>
       <c r="C41" s="39">
-        <v>0.2481136939486919</v>
+        <v>0.24811369394869187</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>42</v>
@@ -2732,7 +2732,7 @@
         <v>202</v>
       </c>
       <c r="C42" s="39">
-        <v>0.94147738095238043</v>
+        <v>0.94147738095238109</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>42</v>
@@ -8403,7 +8403,7 @@
         <v>90.437000000000012</v>
       </c>
       <c r="M10" s="72">
-        <v>74.367999999999995</v>
+        <v>74.368000000000009</v>
       </c>
       <c r="N10" s="72">
         <v>131.096</v>
@@ -8447,7 +8447,7 @@
         <v>112.51499999999999</v>
       </c>
       <c r="M11" s="72">
-        <v>18.581000000000003</v>
+        <v>18.581</v>
       </c>
       <c r="N11" s="72">
         <v>138.88499999999999</v>
@@ -8488,13 +8488,13 @@
         <v>28.523000000000003</v>
       </c>
       <c r="L12" s="72">
-        <v>102.75</v>
+        <v>102.75000000000003</v>
       </c>
       <c r="M12" s="72">
-        <v>36.135000000000005</v>
+        <v>36.134999999999998</v>
       </c>
       <c r="N12" s="72">
-        <v>131.273</v>
+        <v>131.27300000000002</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -8535,7 +8535,7 @@
         <v>101.339</v>
       </c>
       <c r="M13" s="72">
-        <v>29.933999999999997</v>
+        <v>29.934000000000001</v>
       </c>
       <c r="N13" s="72">
         <v>119.456</v>
@@ -10613,7 +10613,7 @@
         <v>70</v>
       </c>
       <c r="K62" s="72">
-        <v>17.649000000000001</v>
+        <v>17.649000000000004</v>
       </c>
       <c r="L62" s="72">
         <v>34.222000000000008</v>
@@ -10701,10 +10701,10 @@
         <v>70</v>
       </c>
       <c r="K64" s="72">
-        <v>14.937999999999999</v>
+        <v>14.938000000000001</v>
       </c>
       <c r="L64" s="72">
-        <v>17.684000000000001</v>
+        <v>17.683999999999997</v>
       </c>
       <c r="M64" s="72">
         <v>44.841999999999999</v>
@@ -10792,13 +10792,13 @@
         <v>2.887</v>
       </c>
       <c r="L66" s="72">
-        <v>19.187000000000001</v>
+        <v>19.186999999999998</v>
       </c>
       <c r="M66" s="72">
         <v>9.902000000000001</v>
       </c>
       <c r="N66" s="72">
-        <v>22.074000000000002</v>
+        <v>22.073999999999998</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -10909,7 +10909,7 @@
         <v>70</v>
       </c>
       <c r="K69" s="72">
-        <v>20.681999999999995</v>
+        <v>20.682000000000002</v>
       </c>
       <c r="L69" s="72">
         <v>0</v>
@@ -10918,7 +10918,7 @@
         <v>0</v>
       </c>
       <c r="N69" s="72">
-        <v>20.681999999999995</v>
+        <v>20.682000000000002</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -13011,7 +13011,7 @@
         <v>94.135000000000005</v>
       </c>
       <c r="M118" s="72">
-        <v>29.026000000000003</v>
+        <v>29.025999999999996</v>
       </c>
       <c r="N118" s="72">
         <v>148.78100000000001</v>
@@ -13052,13 +13052,13 @@
         <v>40.727000000000004</v>
       </c>
       <c r="L119" s="72">
-        <v>95.456999999999965</v>
+        <v>95.457000000000022</v>
       </c>
       <c r="M119" s="72">
         <v>53.323999999999998</v>
       </c>
       <c r="N119" s="72">
-        <v>136.18399999999997</v>
+        <v>136.18400000000003</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
@@ -13096,7 +13096,7 @@
         <v>0</v>
       </c>
       <c r="M120" s="72">
-        <v>136.18399999999997</v>
+        <v>136.18400000000003</v>
       </c>
       <c r="N120" s="72">
         <v>0</v>
@@ -13216,13 +13216,13 @@
         <v>35.237000000000002</v>
       </c>
       <c r="L123" s="72">
-        <v>86.038999999999987</v>
+        <v>86.039000000000016</v>
       </c>
       <c r="M123" s="72">
         <v>65.635999999999996</v>
       </c>
       <c r="N123" s="72">
-        <v>121.276</v>
+        <v>121.27600000000001</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
@@ -14945,16 +14945,16 @@
         <v>70</v>
       </c>
       <c r="K164" s="72">
-        <v>89.477000000000004</v>
+        <v>89.47699999999999</v>
       </c>
       <c r="L164" s="72">
-        <v>92.211999999999989</v>
+        <v>92.211999999999975</v>
       </c>
       <c r="M164" s="72">
         <v>21.090000000000003</v>
       </c>
       <c r="N164" s="72">
-        <v>181.68899999999999</v>
+        <v>181.68899999999996</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
@@ -14989,7 +14989,7 @@
         <v>70</v>
       </c>
       <c r="K165" s="72">
-        <v>43.225999999999999</v>
+        <v>43.226000000000006</v>
       </c>
       <c r="L165" s="72">
         <v>126.61000000000001</v>
@@ -15036,13 +15036,13 @@
         <v>27.663</v>
       </c>
       <c r="L166" s="72">
-        <v>47.566000000000017</v>
+        <v>47.565999999999988</v>
       </c>
       <c r="M166" s="72">
         <v>122.27000000000001</v>
       </c>
       <c r="N166" s="72">
-        <v>75.229000000000013</v>
+        <v>75.228999999999985</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
@@ -15124,13 +15124,13 @@
         <v>19.683</v>
       </c>
       <c r="L168" s="72">
-        <v>71.064999999999998</v>
+        <v>71.065000000000026</v>
       </c>
       <c r="M168" s="72">
-        <v>43.055000000000007</v>
+        <v>43.055</v>
       </c>
       <c r="N168" s="72">
-        <v>90.74799999999999</v>
+        <v>90.748000000000019</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
@@ -15168,7 +15168,7 @@
         <v>0</v>
       </c>
       <c r="M169" s="72">
-        <v>90.74799999999999</v>
+        <v>90.748000000000019</v>
       </c>
       <c r="N169" s="72">
         <v>0</v>
@@ -16469,10 +16469,10 @@
         <v>70</v>
       </c>
       <c r="K200" s="72">
-        <v>109.9</v>
+        <v>109.89999999999998</v>
       </c>
       <c r="L200" s="72">
-        <v>37.126000000000005</v>
+        <v>37.126000000000033</v>
       </c>
       <c r="M200" s="72">
         <v>181.214</v>
@@ -16589,7 +16589,7 @@
         <v>70</v>
       </c>
       <c r="K203" s="72">
-        <v>125.188</v>
+        <v>125.18799999999999</v>
       </c>
       <c r="L203" s="72">
         <v>0</v>
@@ -16598,7 +16598,7 @@
         <v>0</v>
       </c>
       <c r="N203" s="72">
-        <v>125.188</v>
+        <v>125.18799999999999</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
@@ -16633,16 +16633,16 @@
         <v>70</v>
       </c>
       <c r="K204" s="72">
-        <v>57.11099999999999</v>
+        <v>57.111000000000004</v>
       </c>
       <c r="L204" s="72">
-        <v>102.99600000000004</v>
+        <v>102.996</v>
       </c>
       <c r="M204" s="72">
         <v>22.192</v>
       </c>
       <c r="N204" s="72">
-        <v>160.10700000000003</v>
+        <v>160.107</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
@@ -17837,7 +17837,7 @@
         <v>70</v>
       </c>
       <c r="K233" s="72">
-        <v>126.667</v>
+        <v>126.66700000000002</v>
       </c>
       <c r="L233" s="72">
         <v>0</v>
@@ -17846,7 +17846,7 @@
         <v>0</v>
       </c>
       <c r="N233" s="72">
-        <v>126.667</v>
+        <v>126.66700000000002</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
@@ -17884,13 +17884,13 @@
         <v>102.806</v>
       </c>
       <c r="L234" s="72">
-        <v>98.398999999999987</v>
+        <v>98.39899999999993</v>
       </c>
       <c r="M234" s="72">
         <v>28.268000000000001</v>
       </c>
       <c r="N234" s="72">
-        <v>201.20499999999998</v>
+        <v>201.20499999999993</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.25">
@@ -17928,13 +17928,13 @@
         <v>66.557000000000002</v>
       </c>
       <c r="L235" s="72">
-        <v>39.483000000000004</v>
+        <v>39.48299999999999</v>
       </c>
       <c r="M235" s="72">
-        <v>161.72200000000001</v>
+        <v>161.72199999999992</v>
       </c>
       <c r="N235" s="72">
-        <v>106.04</v>
+        <v>106.03999999999999</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
@@ -19173,7 +19173,7 @@
         <v>70</v>
       </c>
       <c r="K265" s="72">
-        <v>118.30500000000001</v>
+        <v>118.30499999999999</v>
       </c>
       <c r="L265" s="72">
         <v>0</v>
@@ -19182,7 +19182,7 @@
         <v>0</v>
       </c>
       <c r="N265" s="72">
-        <v>118.30500000000001</v>
+        <v>118.30499999999999</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.25">
@@ -19217,16 +19217,16 @@
         <v>70</v>
       </c>
       <c r="K266" s="72">
-        <v>54.879000000000005</v>
+        <v>54.878999999999998</v>
       </c>
       <c r="L266" s="72">
-        <v>86.360000000000028</v>
+        <v>86.360000000000014</v>
       </c>
       <c r="M266" s="72">
         <v>31.945</v>
       </c>
       <c r="N266" s="72">
-        <v>141.23900000000003</v>
+        <v>141.239</v>
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.25">
@@ -19261,13 +19261,13 @@
         <v>70</v>
       </c>
       <c r="K267" s="72">
-        <v>34.213000000000008</v>
+        <v>34.213000000000001</v>
       </c>
       <c r="L267" s="72">
-        <v>97.560999999999993</v>
+        <v>97.561000000000007</v>
       </c>
       <c r="M267" s="72">
-        <v>43.677999999999997</v>
+        <v>43.678000000000004</v>
       </c>
       <c r="N267" s="72">
         <v>131.774</v>
@@ -19305,10 +19305,10 @@
         <v>70</v>
       </c>
       <c r="K268" s="72">
-        <v>32.012999999999998</v>
+        <v>32.013000000000005</v>
       </c>
       <c r="L268" s="72">
-        <v>45.434000000000005</v>
+        <v>45.433999999999997</v>
       </c>
       <c r="M268" s="72">
         <v>86.34</v>
@@ -19349,16 +19349,16 @@
         <v>70</v>
       </c>
       <c r="K269" s="72">
-        <v>48.448</v>
+        <v>48.448000000000008</v>
       </c>
       <c r="L269" s="72">
-        <v>61.073999999999991</v>
+        <v>61.073999999999998</v>
       </c>
       <c r="M269" s="72">
         <v>16.372999999999998</v>
       </c>
       <c r="N269" s="72">
-        <v>109.52199999999999</v>
+        <v>109.52200000000001</v>
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.25">
@@ -19396,13 +19396,13 @@
         <v>26.499000000000002</v>
       </c>
       <c r="L270" s="72">
-        <v>60.421000000000014</v>
+        <v>60.420999999999999</v>
       </c>
       <c r="M270" s="72">
         <v>49.100999999999999</v>
       </c>
       <c r="N270" s="72">
-        <v>86.920000000000016</v>
+        <v>86.92</v>
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.25">
@@ -19440,7 +19440,7 @@
         <v>0</v>
       </c>
       <c r="M271" s="72">
-        <v>86.920000000000016</v>
+        <v>86.92</v>
       </c>
       <c r="N271" s="72">
         <v>0</v>
@@ -20832,13 +20832,13 @@
         <v>100.316</v>
       </c>
       <c r="L304" s="72">
-        <v>85</v>
+        <v>84.999999999999972</v>
       </c>
       <c r="M304" s="72">
         <v>17.501000000000001</v>
       </c>
       <c r="N304" s="72">
-        <v>185.316</v>
+        <v>185.31599999999997</v>
       </c>
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.25">
@@ -20879,7 +20879,7 @@
         <v>93.741000000000014</v>
       </c>
       <c r="M305" s="72">
-        <v>91.575000000000017</v>
+        <v>91.575000000000003</v>
       </c>
       <c r="N305" s="72">
         <v>119.53100000000001</v>
@@ -20993,10 +20993,10 @@
         <v>70</v>
       </c>
       <c r="K308" s="72">
-        <v>134.78899999999999</v>
+        <v>134.78900000000002</v>
       </c>
       <c r="L308" s="72">
-        <v>103.40899999999999</v>
+        <v>103.40899999999996</v>
       </c>
       <c r="M308" s="72">
         <v>21.585999999999999</v>
@@ -21040,13 +21040,13 @@
         <v>40.466000000000001</v>
       </c>
       <c r="L309" s="72">
-        <v>140.77199999999999</v>
+        <v>140.77200000000002</v>
       </c>
       <c r="M309" s="72">
-        <v>97.426000000000016</v>
+        <v>97.425999999999988</v>
       </c>
       <c r="N309" s="72">
-        <v>181.238</v>
+        <v>181.23800000000003</v>
       </c>
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.25">
@@ -21081,16 +21081,16 @@
         <v>70</v>
       </c>
       <c r="K310" s="72">
-        <v>33.278999999999996</v>
+        <v>33.279000000000003</v>
       </c>
       <c r="L310" s="72">
-        <v>53.980000000000004</v>
+        <v>53.980000000000011</v>
       </c>
       <c r="M310" s="72">
         <v>127.25800000000001</v>
       </c>
       <c r="N310" s="72">
-        <v>87.259</v>
+        <v>87.259000000000015</v>
       </c>
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.25">
@@ -22743,7 +22743,7 @@
         <v>75.831999999999994</v>
       </c>
       <c r="M349" s="72">
-        <v>49.417999999999999</v>
+        <v>49.417999999999992</v>
       </c>
       <c r="N349" s="72">
         <v>90.064999999999998</v>
@@ -22813,7 +22813,7 @@
         <v>70</v>
       </c>
       <c r="K351" s="72">
-        <v>100.7</v>
+        <v>100.70000000000002</v>
       </c>
       <c r="L351" s="72">
         <v>0</v>
@@ -22822,7 +22822,7 @@
         <v>0</v>
       </c>
       <c r="N351" s="72">
-        <v>100.7</v>
+        <v>100.70000000000002</v>
       </c>
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.25">
@@ -22857,10 +22857,10 @@
         <v>70</v>
       </c>
       <c r="K352" s="72">
-        <v>40.634999999999998</v>
+        <v>40.635000000000005</v>
       </c>
       <c r="L352" s="72">
-        <v>77.469000000000023</v>
+        <v>77.469000000000008</v>
       </c>
       <c r="M352" s="72">
         <v>23.231000000000002</v>
@@ -22904,13 +22904,13 @@
         <v>23.488</v>
       </c>
       <c r="L353" s="72">
-        <v>93.323000000000008</v>
+        <v>93.322999999999993</v>
       </c>
       <c r="M353" s="72">
-        <v>24.780999999999999</v>
+        <v>24.781000000000002</v>
       </c>
       <c r="N353" s="72">
-        <v>116.81100000000001</v>
+        <v>116.81099999999999</v>
       </c>
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.25">
@@ -22989,16 +22989,16 @@
         <v>70</v>
       </c>
       <c r="K355" s="72">
-        <v>31.738</v>
+        <v>31.738000000000003</v>
       </c>
       <c r="L355" s="72">
-        <v>52.232999999999976</v>
+        <v>52.23299999999999</v>
       </c>
       <c r="M355" s="72">
         <v>71.24799999999999</v>
       </c>
       <c r="N355" s="72">
-        <v>83.970999999999975</v>
+        <v>83.970999999999989</v>
       </c>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.25">
@@ -23033,16 +23033,16 @@
         <v>70</v>
       </c>
       <c r="K356" s="72">
-        <v>41.027999999999999</v>
+        <v>41.028000000000006</v>
       </c>
       <c r="L356" s="72">
-        <v>59.106000000000016</v>
+        <v>59.10599999999998</v>
       </c>
       <c r="M356" s="72">
         <v>24.865000000000002</v>
       </c>
       <c r="N356" s="72">
-        <v>100.13400000000001</v>
+        <v>100.13399999999999</v>
       </c>
     </row>
     <row r="357" spans="1:14" x14ac:dyDescent="0.25">
@@ -25003,7 +25003,7 @@
         <v>87.408999999999992</v>
       </c>
       <c r="M402" s="72">
-        <v>13.155999999999999</v>
+        <v>13.156000000000001</v>
       </c>
       <c r="N402" s="72">
         <v>139.07599999999999</v>
@@ -25117,7 +25117,7 @@
         <v>70</v>
       </c>
       <c r="K405" s="72">
-        <v>108.42699999999999</v>
+        <v>108.42700000000001</v>
       </c>
       <c r="L405" s="72">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="N405" s="72">
-        <v>108.42699999999999</v>
+        <v>108.42700000000001</v>
       </c>
     </row>
     <row r="406" spans="1:14" x14ac:dyDescent="0.25">
@@ -25164,13 +25164,13 @@
         <v>59.756</v>
       </c>
       <c r="L406" s="72">
-        <v>99.09099999999998</v>
+        <v>99.091000000000008</v>
       </c>
       <c r="M406" s="72">
         <v>9.3360000000000021</v>
       </c>
       <c r="N406" s="72">
-        <v>158.84699999999998</v>
+        <v>158.84700000000001</v>
       </c>
     </row>
     <row r="407" spans="1:14" x14ac:dyDescent="0.25">
@@ -25211,7 +25211,7 @@
         <v>111.98800000000001</v>
       </c>
       <c r="M407" s="72">
-        <v>46.859000000000009</v>
+        <v>46.859000000000002</v>
       </c>
       <c r="N407" s="72">
         <v>136.93200000000002</v>
@@ -25249,10 +25249,10 @@
         <v>70</v>
       </c>
       <c r="K408" s="72">
-        <v>35.546000000000006</v>
+        <v>35.545999999999999</v>
       </c>
       <c r="L408" s="72">
-        <v>92.984999999999999</v>
+        <v>92.985000000000014</v>
       </c>
       <c r="M408" s="72">
         <v>43.947000000000003</v>
@@ -25293,16 +25293,16 @@
         <v>70</v>
       </c>
       <c r="K409" s="72">
-        <v>24.645</v>
+        <v>24.645000000000003</v>
       </c>
       <c r="L409" s="72">
-        <v>38.131</v>
+        <v>38.130999999999993</v>
       </c>
       <c r="M409" s="72">
         <v>90.4</v>
       </c>
       <c r="N409" s="72">
-        <v>62.776000000000003</v>
+        <v>62.775999999999996</v>
       </c>
     </row>
     <row r="410" spans="1:14" x14ac:dyDescent="0.25">
@@ -27421,7 +27421,7 @@
         <v>70</v>
       </c>
       <c r="K459" s="72">
-        <v>111.977</v>
+        <v>111.97700000000002</v>
       </c>
       <c r="L459" s="72">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="N459" s="72">
-        <v>111.977</v>
+        <v>111.97700000000002</v>
       </c>
     </row>
     <row r="460" spans="1:14" x14ac:dyDescent="0.25">
@@ -27512,13 +27512,13 @@
         <v>18.954000000000001</v>
       </c>
       <c r="L461" s="72">
-        <v>99.433000000000021</v>
+        <v>99.432999999999993</v>
       </c>
       <c r="M461" s="72">
         <v>28.350999999999999</v>
       </c>
       <c r="N461" s="72">
-        <v>118.38700000000003</v>
+        <v>118.387</v>
       </c>
     </row>
     <row r="462" spans="1:14" x14ac:dyDescent="0.25">
@@ -27556,13 +27556,13 @@
         <v>22.623000000000005</v>
       </c>
       <c r="L462" s="72">
-        <v>105.87499999999999</v>
+        <v>105.87500000000001</v>
       </c>
       <c r="M462" s="72">
         <v>12.512</v>
       </c>
       <c r="N462" s="72">
-        <v>128.49799999999999</v>
+        <v>128.49800000000002</v>
       </c>
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.25">
@@ -27597,13 +27597,13 @@
         <v>70</v>
       </c>
       <c r="K463" s="72">
-        <v>19.882000000000001</v>
+        <v>19.881999999999998</v>
       </c>
       <c r="L463" s="72">
         <v>65.813999999999993</v>
       </c>
       <c r="M463" s="72">
-        <v>62.684000000000005</v>
+        <v>62.684000000000012</v>
       </c>
       <c r="N463" s="72">
         <v>85.695999999999998</v>
@@ -27644,13 +27644,13 @@
         <v>69.308999999999997</v>
       </c>
       <c r="L464" s="72">
-        <v>60.581999999999994</v>
+        <v>60.582000000000022</v>
       </c>
       <c r="M464" s="72">
-        <v>25.114000000000001</v>
+        <v>25.114000000000004</v>
       </c>
       <c r="N464" s="72">
-        <v>129.89099999999999</v>
+        <v>129.89100000000002</v>
       </c>
     </row>
     <row r="465" spans="1:14" x14ac:dyDescent="0.25">
@@ -27685,13 +27685,13 @@
         <v>70</v>
       </c>
       <c r="K465" s="72">
-        <v>50.379000000000005</v>
+        <v>50.378999999999998</v>
       </c>
       <c r="L465" s="72">
-        <v>112.98300000000002</v>
+        <v>112.98300000000003</v>
       </c>
       <c r="M465" s="72">
-        <v>16.907999999999998</v>
+        <v>16.908000000000001</v>
       </c>
       <c r="N465" s="72">
         <v>163.36200000000002</v>
@@ -29608,13 +29608,13 @@
         <v>8.9169999999999998</v>
       </c>
       <c r="L510" s="72">
-        <v>28.314000000000007</v>
+        <v>28.314</v>
       </c>
       <c r="M510" s="72">
         <v>11.722000000000001</v>
       </c>
       <c r="N510" s="72">
-        <v>37.231000000000009</v>
+        <v>37.231000000000002</v>
       </c>
     </row>
     <row r="511" spans="1:14" x14ac:dyDescent="0.25">
@@ -29772,13 +29772,13 @@
         <v>35.798000000000002</v>
       </c>
       <c r="L514" s="72">
-        <v>32.787999999999997</v>
+        <v>32.788000000000011</v>
       </c>
       <c r="M514" s="72">
         <v>3.5489999999999999</v>
       </c>
       <c r="N514" s="72">
-        <v>68.585999999999999</v>
+        <v>68.586000000000013</v>
       </c>
     </row>
     <row r="515" spans="1:14" x14ac:dyDescent="0.25">
@@ -29816,13 +29816,13 @@
         <v>23.978999999999999</v>
       </c>
       <c r="L515" s="72">
-        <v>48.750000000000014</v>
+        <v>48.75</v>
       </c>
       <c r="M515" s="72">
         <v>19.835999999999999</v>
       </c>
       <c r="N515" s="72">
-        <v>72.729000000000013</v>
+        <v>72.728999999999999</v>
       </c>
     </row>
     <row r="516" spans="1:14" x14ac:dyDescent="0.25">
@@ -29857,13 +29857,13 @@
         <v>70</v>
       </c>
       <c r="K516" s="72">
-        <v>27.037999999999997</v>
+        <v>27.038</v>
       </c>
       <c r="L516" s="72">
         <v>49.027000000000001</v>
       </c>
       <c r="M516" s="72">
-        <v>23.701999999999998</v>
+        <v>23.702000000000002</v>
       </c>
       <c r="N516" s="72">
         <v>76.064999999999998</v>
@@ -29907,7 +29907,7 @@
         <v>21.161000000000001</v>
       </c>
       <c r="M517" s="72">
-        <v>54.904000000000003</v>
+        <v>54.903999999999996</v>
       </c>
       <c r="N517" s="72">
         <v>33.363</v>
@@ -31897,7 +31897,7 @@
         <v>70</v>
       </c>
       <c r="K564" s="72">
-        <v>23.907999999999998</v>
+        <v>23.908000000000001</v>
       </c>
       <c r="L564" s="72">
         <v>0</v>
@@ -31906,7 +31906,7 @@
         <v>0</v>
       </c>
       <c r="N564" s="72">
-        <v>23.907999999999998</v>
+        <v>23.908000000000001</v>
       </c>
     </row>
     <row r="565" spans="1:14" x14ac:dyDescent="0.25">
@@ -31944,13 +31944,13 @@
         <v>46.676000000000002</v>
       </c>
       <c r="L565" s="72">
-        <v>21.539999999999992</v>
+        <v>21.540000000000006</v>
       </c>
       <c r="M565" s="72">
         <v>2.3679999999999999</v>
       </c>
       <c r="N565" s="72">
-        <v>68.215999999999994</v>
+        <v>68.216000000000008</v>
       </c>
     </row>
     <row r="566" spans="1:14" x14ac:dyDescent="0.25">
@@ -31991,7 +31991,7 @@
         <v>17.318000000000001</v>
       </c>
       <c r="M566" s="72">
-        <v>50.897999999999996</v>
+        <v>50.89800000000001</v>
       </c>
       <c r="N566" s="72">
         <v>35.039000000000001</v>
@@ -32035,7 +32035,7 @@
         <v>18.343000000000004</v>
       </c>
       <c r="M567" s="72">
-        <v>16.696000000000002</v>
+        <v>16.695999999999998</v>
       </c>
       <c r="N567" s="72">
         <v>34.197000000000003</v>
@@ -32073,10 +32073,10 @@
         <v>70</v>
       </c>
       <c r="K568" s="72">
-        <v>13.784000000000001</v>
+        <v>13.783999999999999</v>
       </c>
       <c r="L568" s="72">
-        <v>14.493999999999998</v>
+        <v>14.494</v>
       </c>
       <c r="M568" s="72">
         <v>19.703000000000003</v>
@@ -33409,7 +33409,7 @@
         <v>70</v>
       </c>
       <c r="K600" s="72">
-        <v>44.976999999999997</v>
+        <v>44.977000000000004</v>
       </c>
       <c r="L600" s="72">
         <v>0</v>
@@ -33418,7 +33418,7 @@
         <v>0</v>
       </c>
       <c r="N600" s="72">
-        <v>44.976999999999997</v>
+        <v>44.977000000000004</v>
       </c>
     </row>
     <row r="601" spans="1:14" x14ac:dyDescent="0.25">
@@ -33456,13 +33456,13 @@
         <v>77.314999999999998</v>
       </c>
       <c r="L601" s="72">
-        <v>32.494</v>
+        <v>32.494000000000014</v>
       </c>
       <c r="M601" s="72">
         <v>12.483000000000001</v>
       </c>
       <c r="N601" s="72">
-        <v>109.809</v>
+        <v>109.80900000000001</v>
       </c>
     </row>
     <row r="602" spans="1:14" x14ac:dyDescent="0.25">
@@ -33541,16 +33541,16 @@
         <v>70</v>
       </c>
       <c r="K603" s="72">
-        <v>27.827999999999999</v>
+        <v>27.828000000000003</v>
       </c>
       <c r="L603" s="72">
-        <v>56.122</v>
+        <v>56.121999999999986</v>
       </c>
       <c r="M603" s="72">
         <v>74.475999999999999</v>
       </c>
       <c r="N603" s="72">
-        <v>83.95</v>
+        <v>83.949999999999989</v>
       </c>
     </row>
     <row r="604" spans="1:14" x14ac:dyDescent="0.25">
@@ -33588,13 +33588,13 @@
         <v>29.744</v>
       </c>
       <c r="L604" s="72">
-        <v>65.58</v>
+        <v>65.579999999999984</v>
       </c>
       <c r="M604" s="72">
         <v>18.369999999999997</v>
       </c>
       <c r="N604" s="72">
-        <v>95.323999999999998</v>
+        <v>95.323999999999984</v>
       </c>
     </row>
     <row r="605" spans="1:14" x14ac:dyDescent="0.25">
@@ -34760,13 +34760,13 @@
         <v>58.372</v>
       </c>
       <c r="L632" s="72">
-        <v>27.673000000000002</v>
+        <v>27.672999999999988</v>
       </c>
       <c r="M632" s="72">
         <v>13.850999999999999</v>
       </c>
       <c r="N632" s="72">
-        <v>86.045000000000002</v>
+        <v>86.044999999999987</v>
       </c>
     </row>
     <row r="633" spans="1:14" x14ac:dyDescent="0.25">
@@ -34801,10 +34801,10 @@
         <v>70</v>
       </c>
       <c r="K633" s="72">
-        <v>19.996000000000002</v>
+        <v>19.995999999999999</v>
       </c>
       <c r="L633" s="72">
-        <v>18.603000000000002</v>
+        <v>18.603000000000005</v>
       </c>
       <c r="M633" s="72">
         <v>67.442000000000007</v>
@@ -34851,7 +34851,7 @@
         <v>22.433999999999997</v>
       </c>
       <c r="M634" s="72">
-        <v>16.165000000000003</v>
+        <v>16.164999999999999</v>
       </c>
       <c r="N634" s="72">
         <v>46.808999999999997</v>
@@ -34965,10 +34965,10 @@
         <v>70</v>
       </c>
       <c r="K637" s="72">
-        <v>24.348000000000003</v>
+        <v>24.347999999999999</v>
       </c>
       <c r="L637" s="72">
-        <v>13.645999999999997</v>
+        <v>13.646000000000001</v>
       </c>
       <c r="M637" s="72">
         <v>1.8570000000000002</v>
@@ -36483,7 +36483,7 @@
         <v>42.219000000000008</v>
       </c>
       <c r="M673" s="72">
-        <v>30.120000000000005</v>
+        <v>30.119999999999997</v>
       </c>
       <c r="N673" s="72">
         <v>66.64500000000001</v>
@@ -36521,13 +36521,13 @@
         <v>70</v>
       </c>
       <c r="K674" s="72">
-        <v>20.227</v>
+        <v>20.226999999999997</v>
       </c>
       <c r="L674" s="72">
-        <v>18.286999999999995</v>
+        <v>18.286999999999999</v>
       </c>
       <c r="M674" s="72">
-        <v>48.357999999999997</v>
+        <v>48.358000000000004</v>
       </c>
       <c r="N674" s="72">
         <v>38.513999999999996</v>
@@ -36568,13 +36568,13 @@
         <v>24.695</v>
       </c>
       <c r="L675" s="72">
-        <v>22.588999999999992</v>
+        <v>22.589000000000006</v>
       </c>
       <c r="M675" s="72">
         <v>15.925000000000001</v>
       </c>
       <c r="N675" s="72">
-        <v>47.283999999999992</v>
+        <v>47.284000000000006</v>
       </c>
     </row>
     <row r="676" spans="1:14" x14ac:dyDescent="0.25">
@@ -36612,13 +36612,13 @@
         <v>7.5469999999999997</v>
       </c>
       <c r="L676" s="72">
-        <v>25.447999999999997</v>
+        <v>25.448000000000004</v>
       </c>
       <c r="M676" s="72">
         <v>21.835999999999999</v>
       </c>
       <c r="N676" s="72">
-        <v>32.994999999999997</v>
+        <v>32.995000000000005</v>
       </c>
     </row>
     <row r="677" spans="1:14" x14ac:dyDescent="0.25">
@@ -36656,7 +36656,7 @@
         <v>0</v>
       </c>
       <c r="M677" s="72">
-        <v>32.994999999999997</v>
+        <v>32.995000000000005</v>
       </c>
       <c r="N677" s="72">
         <v>0</v>
@@ -38036,13 +38036,13 @@
         <v>22.164999999999999</v>
       </c>
       <c r="L710" s="72">
-        <v>49.243000000000002</v>
+        <v>49.243000000000016</v>
       </c>
       <c r="M710" s="72">
-        <v>31.029000000000003</v>
+        <v>31.028999999999996</v>
       </c>
       <c r="N710" s="72">
-        <v>71.408000000000001</v>
+        <v>71.408000000000015</v>
       </c>
     </row>
     <row r="711" spans="1:14" x14ac:dyDescent="0.25">
@@ -38083,7 +38083,7 @@
         <v>20.719000000000001</v>
       </c>
       <c r="M711" s="72">
-        <v>50.689</v>
+        <v>50.689000000000007</v>
       </c>
       <c r="N711" s="72">
         <v>31.152000000000001</v>
@@ -38124,13 +38124,13 @@
         <v>16.993000000000002</v>
       </c>
       <c r="L712" s="72">
-        <v>22.746000000000002</v>
+        <v>22.745999999999995</v>
       </c>
       <c r="M712" s="72">
         <v>8.4059999999999988</v>
       </c>
       <c r="N712" s="72">
-        <v>39.739000000000004</v>
+        <v>39.738999999999997</v>
       </c>
     </row>
     <row r="713" spans="1:14" x14ac:dyDescent="0.25">
@@ -38168,7 +38168,7 @@
         <v>0</v>
       </c>
       <c r="M713" s="72">
-        <v>39.739000000000004</v>
+        <v>39.738999999999997</v>
       </c>
       <c r="N713" s="72">
         <v>0</v>
@@ -39457,7 +39457,7 @@
         <v>70</v>
       </c>
       <c r="K744" s="72">
-        <v>70.138999999999996</v>
+        <v>70.13900000000001</v>
       </c>
       <c r="L744" s="72">
         <v>0</v>
@@ -39466,7 +39466,7 @@
         <v>0</v>
       </c>
       <c r="N744" s="72">
-        <v>70.138999999999996</v>
+        <v>70.13900000000001</v>
       </c>
     </row>
     <row r="745" spans="1:14" x14ac:dyDescent="0.25">
@@ -39501,7 +39501,7 @@
         <v>70</v>
       </c>
       <c r="K745" s="72">
-        <v>18.965000000000003</v>
+        <v>18.965</v>
       </c>
       <c r="L745" s="72">
         <v>44.692999999999998</v>
@@ -39510,7 +39510,7 @@
         <v>25.446000000000002</v>
       </c>
       <c r="N745" s="72">
-        <v>63.658000000000001</v>
+        <v>63.657999999999994</v>
       </c>
     </row>
     <row r="746" spans="1:14" x14ac:dyDescent="0.25">
@@ -39548,13 +39548,13 @@
         <v>18.813000000000002</v>
       </c>
       <c r="L746" s="72">
-        <v>18.298000000000002</v>
+        <v>18.297999999999995</v>
       </c>
       <c r="M746" s="72">
         <v>45.36</v>
       </c>
       <c r="N746" s="72">
-        <v>37.111000000000004</v>
+        <v>37.110999999999997</v>
       </c>
     </row>
     <row r="747" spans="1:14" x14ac:dyDescent="0.25">
@@ -39589,10 +39589,10 @@
         <v>70</v>
       </c>
       <c r="K747" s="72">
-        <v>19.495999999999999</v>
+        <v>19.496000000000002</v>
       </c>
       <c r="L747" s="72">
-        <v>23.576000000000004</v>
+        <v>23.576000000000001</v>
       </c>
       <c r="M747" s="72">
         <v>13.535</v>
@@ -39636,13 +39636,13 @@
         <v>7.4129999999999994</v>
       </c>
       <c r="L748" s="72">
-        <v>31.579999999999995</v>
+        <v>31.580000000000002</v>
       </c>
       <c r="M748" s="72">
         <v>11.492000000000001</v>
       </c>
       <c r="N748" s="72">
-        <v>38.992999999999995</v>
+        <v>38.993000000000002</v>
       </c>
     </row>
     <row r="749" spans="1:14" x14ac:dyDescent="0.25">
@@ -40849,13 +40849,13 @@
         <v>70</v>
       </c>
       <c r="K777" s="72">
-        <v>23.911000000000001</v>
+        <v>23.910999999999998</v>
       </c>
       <c r="L777" s="72">
         <v>39.722999999999999</v>
       </c>
       <c r="M777" s="72">
-        <v>55.349999999999994</v>
+        <v>55.35</v>
       </c>
       <c r="N777" s="72">
         <v>63.634</v>
@@ -40896,13 +40896,13 @@
         <v>4.1050000000000004</v>
       </c>
       <c r="L778" s="72">
-        <v>16.702999999999999</v>
+        <v>16.703000000000003</v>
       </c>
       <c r="M778" s="72">
-        <v>46.930999999999997</v>
+        <v>46.931000000000004</v>
       </c>
       <c r="N778" s="72">
-        <v>20.808</v>
+        <v>20.808000000000003</v>
       </c>
     </row>
     <row r="779" spans="1:14" x14ac:dyDescent="0.25">
@@ -40940,7 +40940,7 @@
         <v>0</v>
       </c>
       <c r="M779" s="72">
-        <v>20.808</v>
+        <v>20.808000000000003</v>
       </c>
       <c r="N779" s="72">
         <v>0</v>
@@ -40969,7 +40969,7 @@
         <v>70</v>
       </c>
       <c r="K780" s="72">
-        <v>88.730000000000018</v>
+        <v>88.72999999999999</v>
       </c>
       <c r="L780" s="72">
         <v>0</v>
@@ -40978,7 +40978,7 @@
         <v>0</v>
       </c>
       <c r="N780" s="72">
-        <v>88.730000000000018</v>
+        <v>88.72999999999999</v>
       </c>
     </row>
     <row r="781" spans="1:14" x14ac:dyDescent="0.25">
@@ -41016,13 +41016,13 @@
         <v>67.968999999999994</v>
       </c>
       <c r="L781" s="72">
-        <v>46.567000000000021</v>
+        <v>46.567000000000007</v>
       </c>
       <c r="M781" s="72">
-        <v>42.163000000000004</v>
+        <v>42.162999999999997</v>
       </c>
       <c r="N781" s="72">
-        <v>114.53600000000002</v>
+        <v>114.536</v>
       </c>
     </row>
     <row r="782" spans="1:14" x14ac:dyDescent="0.25">
@@ -42531,7 +42531,7 @@
         <v>44.643000000000001</v>
       </c>
       <c r="M817" s="72">
-        <v>15.955</v>
+        <v>15.954999999999998</v>
       </c>
       <c r="N817" s="72">
         <v>117.125</v>
@@ -42569,16 +42569,16 @@
         <v>70</v>
       </c>
       <c r="K818" s="72">
-        <v>26.519000000000005</v>
+        <v>26.519000000000002</v>
       </c>
       <c r="L818" s="72">
-        <v>67.858000000000004</v>
+        <v>67.85799999999999</v>
       </c>
       <c r="M818" s="72">
         <v>49.266999999999996</v>
       </c>
       <c r="N818" s="72">
-        <v>94.37700000000001</v>
+        <v>94.376999999999995</v>
       </c>
     </row>
     <row r="819" spans="1:14" x14ac:dyDescent="0.25">
@@ -43964,7 +43964,7 @@
         <v>0</v>
       </c>
       <c r="M851" s="72">
-        <v>21.721</v>
+        <v>21.721000000000004</v>
       </c>
       <c r="N851" s="72">
         <v>0</v>
@@ -44037,10 +44037,10 @@
         <v>70</v>
       </c>
       <c r="K853" s="72">
-        <v>42.802999999999997</v>
+        <v>42.803000000000004</v>
       </c>
       <c r="L853" s="72">
-        <v>49.304000000000002</v>
+        <v>49.303999999999995</v>
       </c>
       <c r="M853" s="72">
         <v>25.483000000000001</v>
@@ -44087,7 +44087,7 @@
         <v>18.033999999999992</v>
       </c>
       <c r="M854" s="72">
-        <v>74.073000000000008</v>
+        <v>74.072999999999993</v>
       </c>
       <c r="N854" s="72">
         <v>50.924999999999997</v>
@@ -44169,10 +44169,10 @@
         <v>70</v>
       </c>
       <c r="K856" s="72">
-        <v>7.6749999999999998</v>
+        <v>7.6749999999999989</v>
       </c>
       <c r="L856" s="72">
-        <v>8.9039999999999999</v>
+        <v>8.9040000000000017</v>
       </c>
       <c r="M856" s="72">
         <v>36.472999999999999</v>
@@ -45596,13 +45596,13 @@
         <v>40.658000000000001</v>
       </c>
       <c r="L890" s="72">
-        <v>54.2</v>
+        <v>54.199999999999989</v>
       </c>
       <c r="M890" s="72">
         <v>24.834000000000003</v>
       </c>
       <c r="N890" s="72">
-        <v>94.858000000000004</v>
+        <v>94.85799999999999</v>
       </c>
     </row>
     <row r="891" spans="1:14" x14ac:dyDescent="0.25">
@@ -47017,7 +47017,7 @@
         <v>70</v>
       </c>
       <c r="K924" s="72">
-        <v>84.061999999999998</v>
+        <v>84.062000000000012</v>
       </c>
       <c r="L924" s="72">
         <v>0</v>
@@ -47026,7 +47026,7 @@
         <v>0</v>
       </c>
       <c r="N924" s="72">
-        <v>84.061999999999998</v>
+        <v>84.062000000000012</v>
       </c>
     </row>
     <row r="925" spans="1:14" x14ac:dyDescent="0.25">
@@ -47064,13 +47064,13 @@
         <v>21.097000000000001</v>
       </c>
       <c r="L925" s="72">
-        <v>58.644000000000013</v>
+        <v>58.643999999999998</v>
       </c>
       <c r="M925" s="72">
         <v>25.417999999999999</v>
       </c>
       <c r="N925" s="72">
-        <v>79.741000000000014</v>
+        <v>79.741</v>
       </c>
     </row>
     <row r="926" spans="1:14" x14ac:dyDescent="0.25">
@@ -47111,7 +47111,7 @@
         <v>18.03</v>
       </c>
       <c r="M926" s="72">
-        <v>61.710999999999999</v>
+        <v>61.711000000000006</v>
       </c>
       <c r="N926" s="72">
         <v>28.417999999999999</v>
@@ -47193,10 +47193,10 @@
         <v>70</v>
       </c>
       <c r="K928" s="72">
-        <v>21.958000000000002</v>
+        <v>21.957999999999998</v>
       </c>
       <c r="L928" s="72">
-        <v>11.946999999999999</v>
+        <v>11.947000000000003</v>
       </c>
       <c r="M928" s="72">
         <v>22.735999999999997</v>
@@ -48409,13 +48409,13 @@
         <v>70</v>
       </c>
       <c r="K957" s="72">
-        <v>14.918000000000001</v>
+        <v>14.917999999999999</v>
       </c>
       <c r="L957" s="72">
         <v>25.150999999999996</v>
       </c>
       <c r="M957" s="72">
-        <v>44.308000000000007</v>
+        <v>44.308</v>
       </c>
       <c r="N957" s="72">
         <v>40.068999999999996</v>
@@ -48529,7 +48529,7 @@
         <v>70</v>
       </c>
       <c r="K960" s="72">
-        <v>52.115000000000002</v>
+        <v>52.114999999999995</v>
       </c>
       <c r="L960" s="72">
         <v>0</v>
@@ -48538,7 +48538,7 @@
         <v>0</v>
       </c>
       <c r="N960" s="72">
-        <v>52.115000000000002</v>
+        <v>52.114999999999995</v>
       </c>
     </row>
     <row r="961" spans="1:14" x14ac:dyDescent="0.25">
@@ -48576,13 +48576,13 @@
         <v>34.366</v>
       </c>
       <c r="L961" s="72">
-        <v>37.236999999999995</v>
+        <v>37.237000000000009</v>
       </c>
       <c r="M961" s="72">
-        <v>14.877999999999998</v>
+        <v>14.878</v>
       </c>
       <c r="N961" s="72">
-        <v>71.602999999999994</v>
+        <v>71.603000000000009</v>
       </c>
     </row>
     <row r="962" spans="1:14" x14ac:dyDescent="0.25">
@@ -48623,7 +48623,7 @@
         <v>45.72399999999999</v>
       </c>
       <c r="M962" s="72">
-        <v>25.879000000000001</v>
+        <v>25.879000000000005</v>
       </c>
       <c r="N962" s="72">
         <v>64.253999999999991</v>
@@ -50085,13 +50085,13 @@
         <v>70</v>
       </c>
       <c r="K997" s="72">
-        <v>15.136000000000001</v>
+        <v>15.135999999999999</v>
       </c>
       <c r="L997" s="72">
-        <v>12.372999999999999</v>
+        <v>12.373000000000001</v>
       </c>
       <c r="M997" s="72">
-        <v>47.064</v>
+        <v>47.063999999999993</v>
       </c>
       <c r="N997" s="72">
         <v>27.509</v>
@@ -50132,13 +50132,13 @@
         <v>8.548</v>
       </c>
       <c r="L998" s="72">
-        <v>20.494999999999997</v>
+        <v>20.495000000000005</v>
       </c>
       <c r="M998" s="72">
         <v>7.0140000000000002</v>
       </c>
       <c r="N998" s="72">
-        <v>29.042999999999999</v>
+        <v>29.043000000000006</v>
       </c>
     </row>
     <row r="999" spans="1:14" x14ac:dyDescent="0.25">
@@ -50176,13 +50176,13 @@
         <v>6.2240000000000002</v>
       </c>
       <c r="L999" s="72">
-        <v>3.7190000000000012</v>
+        <v>3.7189999999999976</v>
       </c>
       <c r="M999" s="72">
         <v>25.324000000000002</v>
       </c>
       <c r="N999" s="72">
-        <v>9.9430000000000014</v>
+        <v>9.9429999999999978</v>
       </c>
     </row>
     <row r="1000" spans="1:14" x14ac:dyDescent="0.25">
@@ -51603,7 +51603,7 @@
         <v>9.5360000000000014</v>
       </c>
       <c r="M1033" s="72">
-        <v>13.155999999999999</v>
+        <v>13.156000000000001</v>
       </c>
       <c r="N1033" s="72">
         <v>30.072000000000003</v>
@@ -51641,16 +51641,16 @@
         <v>70</v>
       </c>
       <c r="K1034" s="72">
-        <v>51.301999999999992</v>
+        <v>51.302</v>
       </c>
       <c r="L1034" s="72">
-        <v>10.553000000000011</v>
+        <v>10.552999999999997</v>
       </c>
       <c r="M1034" s="72">
-        <v>19.519000000000002</v>
+        <v>19.518999999999998</v>
       </c>
       <c r="N1034" s="72">
-        <v>61.855000000000004</v>
+        <v>61.854999999999997</v>
       </c>
     </row>
     <row r="1035" spans="1:14" x14ac:dyDescent="0.25">
@@ -51691,7 +51691,7 @@
         <v>33.804000000000002</v>
       </c>
       <c r="M1035" s="72">
-        <v>28.050999999999998</v>
+        <v>28.051000000000002</v>
       </c>
       <c r="N1035" s="72">
         <v>47.347999999999999</v>
@@ -53109,10 +53109,10 @@
         <v>70</v>
       </c>
       <c r="K1069" s="72">
-        <v>26.107999999999997</v>
+        <v>26.108000000000001</v>
       </c>
       <c r="L1069" s="72">
-        <v>9.0869999999999962</v>
+        <v>9.0869999999999926</v>
       </c>
       <c r="M1069" s="72">
         <v>32.645000000000003</v>
@@ -53156,13 +53156,13 @@
         <v>5.8710000000000004</v>
       </c>
       <c r="L1070" s="72">
-        <v>22.846000000000004</v>
+        <v>22.845999999999997</v>
       </c>
       <c r="M1070" s="72">
         <v>12.349</v>
       </c>
       <c r="N1070" s="72">
-        <v>28.717000000000002</v>
+        <v>28.716999999999999</v>
       </c>
     </row>
     <row r="1071" spans="1:14" x14ac:dyDescent="0.25">
@@ -53244,13 +53244,13 @@
         <v>7.3260000000000005</v>
       </c>
       <c r="L1072" s="72">
-        <v>15.081000000000003</v>
+        <v>15.081</v>
       </c>
       <c r="M1072" s="72">
         <v>4.1429999999999998</v>
       </c>
       <c r="N1072" s="72">
-        <v>22.407000000000004</v>
+        <v>22.407</v>
       </c>
     </row>
     <row r="1073" spans="1:14" x14ac:dyDescent="0.25">
@@ -53288,7 +53288,7 @@
         <v>0</v>
       </c>
       <c r="M1073" s="72">
-        <v>22.407000000000004</v>
+        <v>22.407</v>
       </c>
       <c r="N1073" s="72">
         <v>0</v>
@@ -54577,7 +54577,7 @@
         <v>70</v>
       </c>
       <c r="K1104" s="72">
-        <v>115.81799999999998</v>
+        <v>115.818</v>
       </c>
       <c r="L1104" s="72">
         <v>0</v>
@@ -54586,7 +54586,7 @@
         <v>0</v>
       </c>
       <c r="N1104" s="72">
-        <v>115.81799999999998</v>
+        <v>115.818</v>
       </c>
     </row>
     <row r="1105" spans="1:14" x14ac:dyDescent="0.25">
@@ -54621,16 +54621,16 @@
         <v>70</v>
       </c>
       <c r="K1105" s="72">
-        <v>14.082999999999998</v>
+        <v>14.083000000000002</v>
       </c>
       <c r="L1105" s="72">
-        <v>99.173999999999992</v>
+        <v>99.174000000000007</v>
       </c>
       <c r="M1105" s="72">
         <v>16.644000000000002</v>
       </c>
       <c r="N1105" s="72">
-        <v>113.25699999999999</v>
+        <v>113.25700000000001</v>
       </c>
     </row>
     <row r="1106" spans="1:14" x14ac:dyDescent="0.25">
@@ -54753,7 +54753,7 @@
         <v>70</v>
       </c>
       <c r="K1108" s="72">
-        <v>34.693000000000005</v>
+        <v>34.692999999999998</v>
       </c>
       <c r="L1108" s="72">
         <v>26.585000000000001</v>
@@ -54762,7 +54762,7 @@
         <v>76.731999999999999</v>
       </c>
       <c r="N1108" s="72">
-        <v>61.278000000000006</v>
+        <v>61.277999999999999</v>
       </c>
     </row>
     <row r="1109" spans="1:14" x14ac:dyDescent="0.25">
@@ -56016,13 +56016,13 @@
         <v>9.036999999999999</v>
       </c>
       <c r="L1138" s="72">
-        <v>42.753999999999998</v>
+        <v>42.754000000000005</v>
       </c>
       <c r="M1138" s="72">
         <v>8.8040000000000003</v>
       </c>
       <c r="N1138" s="72">
-        <v>51.790999999999997</v>
+        <v>51.791000000000004</v>
       </c>
     </row>
     <row r="1139" spans="1:14" x14ac:dyDescent="0.25">
@@ -56060,7 +56060,7 @@
         <v>0</v>
       </c>
       <c r="M1139" s="72">
-        <v>51.790999999999997</v>
+        <v>51.791000000000004</v>
       </c>
       <c r="N1139" s="72">
         <v>0</v>
@@ -56139,7 +56139,7 @@
         <v>8.8119999999999976</v>
       </c>
       <c r="M1141" s="72">
-        <v>57.387999999999998</v>
+        <v>57.387999999999991</v>
       </c>
       <c r="N1141" s="72">
         <v>38.287999999999997</v>
@@ -57601,7 +57601,7 @@
         <v>70</v>
       </c>
       <c r="K1176" s="72">
-        <v>147.57599999999999</v>
+        <v>147.57600000000002</v>
       </c>
       <c r="L1176" s="72">
         <v>0</v>
@@ -57610,7 +57610,7 @@
         <v>0</v>
       </c>
       <c r="N1176" s="72">
-        <v>147.57599999999999</v>
+        <v>147.57600000000002</v>
       </c>
     </row>
     <row r="1177" spans="1:14" x14ac:dyDescent="0.25">
@@ -57648,13 +57648,13 @@
         <v>12.965</v>
       </c>
       <c r="L1177" s="72">
-        <v>98.651999999999987</v>
+        <v>98.652000000000001</v>
       </c>
       <c r="M1177" s="72">
-        <v>48.923999999999992</v>
+        <v>48.923999999999999</v>
       </c>
       <c r="N1177" s="72">
-        <v>111.61699999999999</v>
+        <v>111.617</v>
       </c>
     </row>
     <row r="1178" spans="1:14" x14ac:dyDescent="0.25">
@@ -57692,13 +57692,13 @@
         <v>31.268999999999998</v>
       </c>
       <c r="L1178" s="72">
-        <v>94.338999999999999</v>
+        <v>94.33899999999997</v>
       </c>
       <c r="M1178" s="72">
-        <v>17.277999999999999</v>
+        <v>17.278000000000002</v>
       </c>
       <c r="N1178" s="72">
-        <v>125.608</v>
+        <v>125.60799999999998</v>
       </c>
     </row>
     <row r="1179" spans="1:14" x14ac:dyDescent="0.25">
@@ -57780,13 +57780,13 @@
         <v>22.179000000000002</v>
       </c>
       <c r="L1180" s="72">
-        <v>30.064999999999998</v>
+        <v>30.065000000000012</v>
       </c>
       <c r="M1180" s="72">
-        <v>96.556999999999988</v>
+        <v>96.557000000000002</v>
       </c>
       <c r="N1180" s="72">
-        <v>52.244</v>
+        <v>52.244000000000014</v>
       </c>
     </row>
     <row r="1181" spans="1:14" x14ac:dyDescent="0.25">
@@ -57824,7 +57824,7 @@
         <v>0</v>
       </c>
       <c r="M1181" s="72">
-        <v>52.244</v>
+        <v>52.244000000000014</v>
       </c>
       <c r="N1181" s="72">
         <v>0</v>
@@ -61641,7 +61641,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="72">
-        <v>46.930250000000001</v>
+        <v>46.930250000000008</v>
       </c>
       <c r="H7" s="72">
         <v>280</v>
@@ -61728,13 +61728,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="72">
-        <v>249.83899999999997</v>
+        <v>249.83899999999988</v>
       </c>
       <c r="H10" s="72">
         <v>350</v>
       </c>
       <c r="I10" s="76">
-        <v>0.71382571428571417</v>
+        <v>0.71382571428571395</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -61902,13 +61902,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="72">
-        <v>340.69599999999997</v>
+        <v>340.6959999999998</v>
       </c>
       <c r="H16" s="72">
         <v>420</v>
       </c>
       <c r="I16" s="76">
-        <v>0.81118095238095234</v>
+        <v>0.81118095238095189</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -61931,13 +61931,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="72">
-        <v>121.68999999999998</v>
+        <v>121.68999999999996</v>
       </c>
       <c r="H17" s="72">
         <v>420</v>
       </c>
       <c r="I17" s="76">
-        <v>0.28973809523809518</v>
+        <v>0.28973809523809513</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -61989,13 +61989,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="72">
-        <v>50.378000000000007</v>
+        <v>50.378</v>
       </c>
       <c r="H19" s="72">
         <v>70</v>
       </c>
       <c r="I19" s="76">
-        <v>0.71968571428571437</v>
+        <v>0.71968571428571426</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -62047,13 +62047,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="72">
-        <v>13.413999999999998</v>
+        <v>13.414000000000003</v>
       </c>
       <c r="H21" s="72">
         <v>70</v>
       </c>
       <c r="I21" s="76">
-        <v>0.1916285714285714</v>
+        <v>0.19162857142857148</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -62134,13 +62134,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="72">
-        <v>61.135750000000016</v>
+        <v>61.135749999999987</v>
       </c>
       <c r="H24" s="72">
         <v>70</v>
       </c>
       <c r="I24" s="76">
-        <v>0.87336785714285736</v>
+        <v>0.87336785714285692</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -62163,13 +62163,13 @@
         <v>0</v>
       </c>
       <c r="G25" s="72">
-        <v>43.853500000000018</v>
+        <v>43.853499999999997</v>
       </c>
       <c r="H25" s="72">
         <v>70</v>
       </c>
       <c r="I25" s="76">
-        <v>0.62647857142857166</v>
+        <v>0.62647857142857133</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -62250,13 +62250,13 @@
         <v>0</v>
       </c>
       <c r="G28" s="72">
-        <v>149.03199999999995</v>
+        <v>149.03199999999998</v>
       </c>
       <c r="H28" s="72">
         <v>210</v>
       </c>
       <c r="I28" s="76">
-        <v>0.70967619047619024</v>
+        <v>0.70967619047619035</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -62279,13 +62279,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="72">
-        <v>93.996750000000034</v>
+        <v>93.99675000000002</v>
       </c>
       <c r="H29" s="72">
         <v>210</v>
       </c>
       <c r="I29" s="76">
-        <v>0.4476035714285716</v>
+        <v>0.44760357142857154</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -62308,13 +62308,13 @@
         <v>0</v>
       </c>
       <c r="G30" s="72">
-        <v>57.182000000000009</v>
+        <v>57.181999999999995</v>
       </c>
       <c r="H30" s="72">
         <v>70</v>
       </c>
       <c r="I30" s="76">
-        <v>0.81688571428571444</v>
+        <v>0.81688571428571422</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -62337,13 +62337,13 @@
         <v>0</v>
       </c>
       <c r="G31" s="72">
-        <v>24.904000000000003</v>
+        <v>24.903999999999996</v>
       </c>
       <c r="H31" s="72">
         <v>70</v>
       </c>
       <c r="I31" s="76">
-        <v>0.35577142857142863</v>
+        <v>0.35577142857142852</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -62395,13 +62395,13 @@
         <v>0</v>
       </c>
       <c r="G33" s="72">
-        <v>142.02000000000001</v>
+        <v>142.02000000000004</v>
       </c>
       <c r="H33" s="72">
         <v>210</v>
       </c>
       <c r="I33" s="76">
-        <v>0.67628571428571438</v>
+        <v>0.67628571428571449</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -62424,13 +62424,13 @@
         <v>0</v>
       </c>
       <c r="G34" s="72">
-        <v>617.65949999999964</v>
+        <v>617.65949999999975</v>
       </c>
       <c r="H34" s="72">
         <v>840</v>
       </c>
       <c r="I34" s="76">
-        <v>0.73530892857142816</v>
+        <v>0.73530892857142827</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -62453,13 +62453,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="72">
-        <v>267.49350000000004</v>
+        <v>267.49349999999987</v>
       </c>
       <c r="H35" s="72">
         <v>840</v>
       </c>
       <c r="I35" s="76">
-        <v>0.31844464285714291</v>
+        <v>0.31844464285714269</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -62482,13 +62482,13 @@
         <v>0</v>
       </c>
       <c r="G36" s="72">
-        <v>43.743500000000004</v>
+        <v>43.743500000000026</v>
       </c>
       <c r="H36" s="72">
         <v>70</v>
       </c>
       <c r="I36" s="76">
-        <v>0.62490714285714288</v>
+        <v>0.62490714285714322</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -62511,13 +62511,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="72">
-        <v>59.180750000000003</v>
+        <v>59.180750000000018</v>
       </c>
       <c r="H37" s="72">
         <v>70</v>
       </c>
       <c r="I37" s="76">
-        <v>0.84543928571428573</v>
+        <v>0.84543928571428595</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -62540,13 +62540,13 @@
         <v>0</v>
       </c>
       <c r="G38" s="72">
-        <v>54.979750000000003</v>
+        <v>54.979749999999996</v>
       </c>
       <c r="H38" s="72">
         <v>70</v>
       </c>
       <c r="I38" s="76">
-        <v>0.78542500000000004</v>
+        <v>0.78542499999999993</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -62569,13 +62569,13 @@
         <v>0</v>
       </c>
       <c r="G39" s="72">
-        <v>16.789499999999997</v>
+        <v>16.7895</v>
       </c>
       <c r="H39" s="72">
         <v>70</v>
       </c>
       <c r="I39" s="76">
-        <v>0.23984999999999995</v>
+        <v>0.23985000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -62656,13 +62656,13 @@
         <v>0</v>
       </c>
       <c r="G42" s="72">
-        <v>64.46250000000002</v>
+        <v>64.462500000000006</v>
       </c>
       <c r="H42" s="72">
         <v>70</v>
       </c>
       <c r="I42" s="76">
-        <v>0.9208928571428574</v>
+        <v>0.92089285714285718</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -62685,13 +62685,13 @@
         <v>0</v>
       </c>
       <c r="G43" s="72">
-        <v>38.313249999999996</v>
+        <v>38.313250000000004</v>
       </c>
       <c r="H43" s="72">
         <v>70</v>
       </c>
       <c r="I43" s="76">
-        <v>0.54733214285714282</v>
+        <v>0.54733214285714293</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -62772,13 +62772,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="72">
-        <v>115.89299999999994</v>
+        <v>115.89299999999997</v>
       </c>
       <c r="H46" s="72">
         <v>140</v>
       </c>
       <c r="I46" s="76">
-        <v>0.82780714285714241</v>
+        <v>0.82780714285714263</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -62801,13 +62801,13 @@
         <v>0</v>
       </c>
       <c r="G47" s="72">
-        <v>78.835000000000036</v>
+        <v>78.835000000000022</v>
       </c>
       <c r="H47" s="72">
         <v>140</v>
       </c>
       <c r="I47" s="76">
-        <v>0.56310714285714314</v>
+        <v>0.56310714285714303</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -62859,13 +62859,13 @@
         <v>0</v>
       </c>
       <c r="G49" s="72">
-        <v>41.058</v>
+        <v>41.058000000000007</v>
       </c>
       <c r="H49" s="72">
         <v>70</v>
       </c>
       <c r="I49" s="76">
-        <v>0.58654285714285714</v>
+        <v>0.58654285714285725</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -62888,13 +62888,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="72">
-        <v>97.347250000000031</v>
+        <v>97.347249999999974</v>
       </c>
       <c r="H50" s="72">
         <v>210</v>
       </c>
       <c r="I50" s="76">
-        <v>0.46355833333333346</v>
+        <v>0.46355833333333318</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -62917,13 +62917,13 @@
         <v>0</v>
       </c>
       <c r="G51" s="72">
-        <v>151.36450000000002</v>
+        <v>151.36449999999994</v>
       </c>
       <c r="H51" s="72">
         <v>210</v>
       </c>
       <c r="I51" s="76">
-        <v>0.72078333333333344</v>
+        <v>0.720783333333333</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -62946,13 +62946,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="72">
-        <v>309.79249999999979</v>
+        <v>309.7924999999999</v>
       </c>
       <c r="H52" s="72">
         <v>630</v>
       </c>
       <c r="I52" s="76">
-        <v>0.49173412698412666</v>
+        <v>0.49173412698412683</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -62975,13 +62975,13 @@
         <v>0</v>
       </c>
       <c r="G53" s="72">
-        <v>474.95175</v>
+        <v>474.95174999999978</v>
       </c>
       <c r="H53" s="72">
         <v>630</v>
       </c>
       <c r="I53" s="76">
-        <v>0.75389166666666663</v>
+        <v>0.75389166666666629</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -63004,13 +63004,13 @@
         <v>0</v>
       </c>
       <c r="G54" s="72">
-        <v>43.967250000000007</v>
+        <v>43.967249999999993</v>
       </c>
       <c r="H54" s="72">
         <v>70</v>
       </c>
       <c r="I54" s="76">
-        <v>0.62810357142857154</v>
+        <v>0.62810357142857132</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -63033,7 +63033,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="72">
-        <v>63.393750000000004</v>
+        <v>63.393749999999997</v>
       </c>
       <c r="H55" s="72">
         <v>70</v>
@@ -63091,13 +63091,13 @@
         <v>0</v>
       </c>
       <c r="G57" s="72">
-        <v>17.523250000000001</v>
+        <v>17.523249999999997</v>
       </c>
       <c r="H57" s="72">
         <v>70</v>
       </c>
       <c r="I57" s="76">
-        <v>0.25033214285714289</v>
+        <v>0.25033214285714284</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -63178,13 +63178,13 @@
         <v>0</v>
       </c>
       <c r="G60" s="72">
-        <v>62.991</v>
+        <v>62.991000000000007</v>
       </c>
       <c r="H60" s="72">
         <v>70</v>
       </c>
       <c r="I60" s="76">
-        <v>0.89987142857142854</v>
+        <v>0.89987142857142866</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -63207,13 +63207,13 @@
         <v>0</v>
       </c>
       <c r="G61" s="72">
-        <v>42.273750000000007</v>
+        <v>42.27375</v>
       </c>
       <c r="H61" s="72">
         <v>70</v>
       </c>
       <c r="I61" s="76">
-        <v>0.60391071428571441</v>
+        <v>0.6039107142857143</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -63294,13 +63294,13 @@
         <v>0</v>
       </c>
       <c r="G64" s="72">
-        <v>197.71024999999989</v>
+        <v>197.71025000000003</v>
       </c>
       <c r="H64" s="72">
         <v>210</v>
       </c>
       <c r="I64" s="76">
-        <v>0.94147738095238043</v>
+        <v>0.94147738095238109</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -63323,13 +63323,13 @@
         <v>0</v>
       </c>
       <c r="G65" s="72">
-        <v>128.63374999999999</v>
+        <v>128.63374999999994</v>
       </c>
       <c r="H65" s="72">
         <v>210</v>
       </c>
       <c r="I65" s="76">
-        <v>0.61254166666666665</v>
+        <v>0.61254166666666632</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -63439,13 +63439,13 @@
         <v>0</v>
       </c>
       <c r="G69" s="72">
-        <v>174.39224999999993</v>
+        <v>174.39224999999988</v>
       </c>
       <c r="H69" s="72">
         <v>210</v>
       </c>
       <c r="I69" s="76">
-        <v>0.83043928571428538</v>
+        <v>0.83043928571428516</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -63468,13 +63468,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="72">
-        <v>224.02874999999989</v>
+        <v>224.02875</v>
       </c>
       <c r="H70" s="72">
         <v>350</v>
       </c>
       <c r="I70" s="76">
-        <v>0.64008214285714249</v>
+        <v>0.64008214285714282</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -63526,13 +63526,13 @@
         <v>0</v>
       </c>
       <c r="G72" s="72">
-        <v>45.395250000000011</v>
+        <v>45.395250000000004</v>
       </c>
       <c r="H72" s="72">
         <v>70</v>
       </c>
       <c r="I72" s="76">
-        <v>0.64850357142857162</v>
+        <v>0.64850357142857151</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -63555,13 +63555,13 @@
         <v>0</v>
       </c>
       <c r="G73" s="72">
-        <v>56.678000000000011</v>
+        <v>56.678000000000004</v>
       </c>
       <c r="H73" s="72">
         <v>70</v>
       </c>
       <c r="I73" s="76">
-        <v>0.80968571428571445</v>
+        <v>0.80968571428571434</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -63584,13 +63584,13 @@
         <v>0</v>
       </c>
       <c r="G74" s="72">
-        <v>42.745250000000006</v>
+        <v>42.745249999999999</v>
       </c>
       <c r="H74" s="72">
         <v>70</v>
       </c>
       <c r="I74" s="76">
-        <v>0.6106464285714287</v>
+        <v>0.61064642857142859</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -63700,13 +63700,13 @@
         <v>0</v>
       </c>
       <c r="G78" s="72">
-        <v>54.47775</v>
+        <v>54.477750000000015</v>
       </c>
       <c r="H78" s="72">
         <v>70</v>
       </c>
       <c r="I78" s="76">
-        <v>0.77825357142857143</v>
+        <v>0.77825357142857166</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -63729,13 +63729,13 @@
         <v>0</v>
       </c>
       <c r="G79" s="72">
-        <v>35.89</v>
+        <v>35.890000000000008</v>
       </c>
       <c r="H79" s="72">
         <v>70</v>
       </c>
       <c r="I79" s="76">
-        <v>0.51271428571428568</v>
+        <v>0.51271428571428579</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -63787,13 +63787,13 @@
         <v>0</v>
       </c>
       <c r="G81" s="72">
-        <v>71.546750000000003</v>
+        <v>71.546749999999989</v>
       </c>
       <c r="H81" s="72">
         <v>140</v>
       </c>
       <c r="I81" s="76">
-        <v>0.51104821428571434</v>
+        <v>0.51104821428571423</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -63816,13 +63816,13 @@
         <v>0</v>
       </c>
       <c r="G82" s="72">
-        <v>159.66875000000005</v>
+        <v>159.66874999999999</v>
       </c>
       <c r="H82" s="72">
         <v>210</v>
       </c>
       <c r="I82" s="76">
-        <v>0.76032738095238117</v>
+        <v>0.76032738095238095</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -63845,13 +63845,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="72">
-        <v>63.156249999999986</v>
+        <v>63.15625</v>
       </c>
       <c r="H83" s="72">
         <v>210</v>
       </c>
       <c r="I83" s="76">
-        <v>0.30074404761904755</v>
+        <v>0.30074404761904761</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -63874,13 +63874,13 @@
         <v>0</v>
       </c>
       <c r="G84" s="72">
-        <v>168.25124999999997</v>
+        <v>168.25125000000003</v>
       </c>
       <c r="H84" s="72">
         <v>210</v>
       </c>
       <c r="I84" s="76">
-        <v>0.80119642857142848</v>
+        <v>0.8011964285714287</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -63903,13 +63903,13 @@
         <v>0</v>
       </c>
       <c r="G85" s="72">
-        <v>40.552000000000007</v>
+        <v>40.551999999999992</v>
       </c>
       <c r="H85" s="72">
         <v>210</v>
       </c>
       <c r="I85" s="76">
-        <v>0.19310476190476195</v>
+        <v>0.19310476190476186</v>
       </c>
     </row>
   </sheetData>
